--- a/allPages/allPagesEN-SEO.xlsx
+++ b/allPages/allPagesEN-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="208">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,27 @@
     <t>air cargo transportation Ukraine, air delivery to Ukraine, international air delivery, transportation of cargo by air, air logistics Ukraine, express air delivery, air freight, air cargo transportation, air logistics, air cargo transportation, air transportation from China, air transportation to Europe, air cargo delivery, air freight, air transportation of dangerous goods</t>
   </si>
   <si>
+    <t>11.07.2024</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.com</t>
+  </si>
+  <si>
+    <t>1.com/7</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/truck</t>
   </si>
   <si>
@@ -587,6 +608,33 @@
   </si>
   <si>
     <t>Odesa, ports, export, agricultural products, grain, Ukraine, food security</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>superblogs.com.ua</t>
+  </si>
+  <si>
+    <t>https:/superblogs.com.ua/post4.html</t>
+  </si>
+  <si>
+    <t>таможенне оформления 5</t>
+  </si>
+  <si>
+    <t>17/05/2022</t>
+  </si>
+  <si>
+    <t>Doska Obyavleniy</t>
+  </si>
+  <si>
+    <t>https:/superblogs.com.ua/post5.html</t>
+  </si>
+  <si>
+    <t>таможенне оформления 6</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -1187,25 +1235,25 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1213,13 +1261,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1245,16 +1293,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1280,16 +1328,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1315,16 +1363,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1350,16 +1398,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1385,16 +1433,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1420,16 +1468,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1455,16 +1503,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1490,16 +1538,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1525,16 +1573,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1560,16 +1608,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1595,16 +1643,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1630,16 +1678,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1665,16 +1713,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1700,16 +1748,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1735,16 +1783,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1770,16 +1818,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1805,16 +1853,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1840,16 +1888,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1875,16 +1923,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1910,16 +1958,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1945,16 +1993,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1980,16 +2028,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2015,16 +2063,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2050,16 +2098,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2085,16 +2133,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2120,16 +2168,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2155,16 +2203,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2225,7 +2273,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2260,16 +2308,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2295,16 +2343,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2330,16 +2378,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2365,16 +2413,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2400,16 +2448,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2470,7 +2518,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -2505,16 +2553,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2575,7 +2623,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -2613,13 +2661,13 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2645,16 +2693,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2680,16 +2728,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2715,16 +2763,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2750,16 +2798,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2820,7 +2868,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -2855,16 +2903,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2890,16 +2938,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2925,16 +2973,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2960,16 +3008,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2995,16 +3043,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3030,16 +3078,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3065,16 +3113,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3100,37 +3148,37 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" t="s">
-        <v>12</v>
+        <v>203</v>
+      </c>
+      <c r="K62">
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3147,24 +3195,59 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
-      </c>
-      <c r="K63" t="s">
+        <v>207</v>
+      </c>
+      <c r="K63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesEN-SEO.xlsx
+++ b/allPages/allPagesEN-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -608,6 +608,24 @@
   </si>
   <si>
     <t>Odesa, ports, export, agricultural products, grain, Ukraine, food security</t>
+  </si>
+  <si>
+    <t>05.09.2024</t>
+  </si>
+  <si>
+    <t>хххх</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>xxx.com</t>
+  </si>
+  <si>
+    <t>xxx.com/x1</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>17/05/2023</t>
@@ -1011,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -3163,22 +3181,22 @@
         <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J62" t="s">
-        <v>203</v>
-      </c>
-      <c r="K62">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="K62" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3195,25 +3213,25 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="G63" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H63" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J63" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K63">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3230,24 +3248,59 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" t="s">
+        <v>213</v>
+      </c>
+      <c r="K64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesEN-SEO.xlsx
+++ b/allPages/allPagesEN-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="451">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,294 @@
     <t/>
   </si>
   <si>
+    <t>05.11.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/</t>
+  </si>
+  <si>
+    <t>mainPage</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>Sabmit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/viewer?mid=12h-x2dUk1auuYh5C3JAHuoBUoAFVjXE&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>delivery of goods from China to Ukraine</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>telegra.ph</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/Mastering-Global-Trade-The-Role-of-Customs-Brokers-07-10</t>
+  </si>
+  <si>
+    <t>Customs Broker Ukraine</t>
+  </si>
+  <si>
+    <t>anastasiia-vasylenko-s-school.teachable.com</t>
+  </si>
+  <si>
+    <t>https://anastasiia-vasylenko-s-school.teachable.com/p/right-ecommerce-shipping-method</t>
+  </si>
+  <si>
+    <t>air delivery to Kiev</t>
+  </si>
+  <si>
+    <t>hahalolo.com</t>
+  </si>
+  <si>
+    <t>https://www.hahalolo.com/post/6692b7f46656616b119d7d7f</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>obsidianportal.com</t>
+  </si>
+  <si>
+    <t>https://www.obsidianportal.com/profile/logisticsinUkraine</t>
+  </si>
+  <si>
+    <t>muckrack.com</t>
+  </si>
+  <si>
+    <t>https://muckrack.com/logistic-companyua/bio</t>
+  </si>
+  <si>
+    <t>ted.com</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/profiles/47955326</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>magentoexpertforum.com</t>
+  </si>
+  <si>
+    <t>https://magentoexpertforum.com/showthread.php/36551-%D0%A1argo-delivery-to-Ukraine</t>
+  </si>
+  <si>
+    <t>mernetwork.com</t>
+  </si>
+  <si>
+    <t>https://mernetwork.com/index/showthread.php?259690-Custom-broker</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>forum.ds3club.co.uk</t>
+  </si>
+  <si>
+    <t>https://forum.ds3club.co.uk/forum/the-paddock/general-chat/484219-sea-container-transportation</t>
+  </si>
+  <si>
+    <t>митний Брокер Київ</t>
+  </si>
+  <si>
+    <t>durovis.com</t>
+  </si>
+  <si>
+    <t>https://www.durovis.com/en/board_topic_24294.html</t>
+  </si>
+  <si>
+    <t>авіа перевезення</t>
+  </si>
+  <si>
+    <t>https://magentoexpertforum.com/showthread.php/36271-Tips-for-cargo-delivery-in-Ukraine</t>
+  </si>
+  <si>
+    <t>фрахт контейнера</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>apiscrapy.createaforum.com</t>
+  </si>
+  <si>
+    <t>https://apiscrapy.createaforum.com/general-discussion/customs-clearance-trans-hope-ensures-smooth-and-efficient-cargo-processing/</t>
+  </si>
+  <si>
+    <t>консультации ВЭД</t>
+  </si>
+  <si>
+    <t>azmepakistan.tv</t>
+  </si>
+  <si>
+    <t>https://azmepakistan.tv/forums/topic/32902/-/view/post_id/473023</t>
+  </si>
+  <si>
+    <t>торговий агент в Україні</t>
+  </si>
+  <si>
+    <t>drrajeshgastro.com</t>
+  </si>
+  <si>
+    <t>https://drrajeshgastro.com/myforum/showthread.php?tid=9486</t>
+  </si>
+  <si>
+    <t>Trans-Hope</t>
+  </si>
+  <si>
+    <t>bbs.heyshell.com</t>
+  </si>
+  <si>
+    <t>https://bbs.heyshell.com/forum.php?mod=viewthread&amp;tid=27029&amp;extra=</t>
+  </si>
+  <si>
+    <t>авто доставка</t>
+  </si>
+  <si>
+    <t>mcthings.createaforum.com</t>
+  </si>
+  <si>
+    <t>https://mcthings.createaforum.com/general-discussion/foreign-trade-consultations-ukraine-trans-hope-your-expert-advisory-partner/</t>
+  </si>
+  <si>
+    <t>таможенное оформление</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>forum.thesolutionist.us</t>
+  </si>
+  <si>
+    <t>http://forum.thesolutionist.us/forum?view=thread&amp;id=71</t>
+  </si>
+  <si>
+    <t>maritime logistics in Ukraine</t>
+  </si>
+  <si>
+    <t>moneyfx.boardhost.com</t>
+  </si>
+  <si>
+    <t>https://moneyfx.boardhost.com/viewtopic.php?pid=18909</t>
+  </si>
+  <si>
+    <t>rates for transportation by sea container</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
+  </si>
+  <si>
+    <t>janubaba.com</t>
+  </si>
+  <si>
+    <t>https://www.janubaba.com/c/forum/topic/228806/Advertisment/Can_someone_recommend_a_reliable_logistics_service</t>
+  </si>
+  <si>
+    <t>Таможенное оформление</t>
+  </si>
+  <si>
+    <t>organiqo.com</t>
+  </si>
+  <si>
+    <t>https://organiqo.com/index.php/forum/thread/1638/need-a-reliable-trade-agent-to-assist-with-the-process/</t>
+  </si>
+  <si>
+    <t>стоимость авиа перевозок</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>webhitlist.com</t>
+  </si>
+  <si>
+    <t>https://webhitlist.com/forum/topics/can-anyone-recommend-a-service-that-could-help</t>
+  </si>
+  <si>
+    <t>multimodal transportation Ukraine</t>
+  </si>
+  <si>
+    <t>issuu.com</t>
+  </si>
+  <si>
+    <t>https://issuu.com/ilmaryangvilnius</t>
+  </si>
+  <si>
+    <t>Cargo consolidation in Ukraine</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>flickr.com</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/people/199060986@N03/</t>
+  </si>
+  <si>
+    <t>Foreign trade consultations Ukraine</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>robotech.com</t>
+  </si>
+  <si>
+    <t>https://robotech.com/forums/viewthread/1758066/P30</t>
+  </si>
+  <si>
+    <t>консультації ЗЕД</t>
+  </si>
+  <si>
+    <t>hashtap.com</t>
+  </si>
+  <si>
+    <t>https://www.hashtap.com/@valeriy.devochkin/customs-clearance-ukraine-KPl974LAWKMJ</t>
+  </si>
+  <si>
+    <t>Cargo delivery from Europe to Ukraine</t>
+  </si>
+  <si>
+    <t>tadalive.com</t>
+  </si>
+  <si>
+    <t>https://www.tadalive.com/forum/thread/18530/can-anyone-suggest-a-reliable-service-for-cargo-delivery/</t>
+  </si>
+  <si>
+    <t>Air freight costs Ukraine</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/123-123</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>03.11.2024</t>
   </si>
   <si>
@@ -100,27 +388,6 @@
     <t>air cargo transportation Ukraine, air delivery to Ukraine, international air delivery, transportation of cargo by air, air logistics Ukraine, express air delivery, air freight, air cargo transportation, air logistics, air cargo transportation, air transportation from China, air transportation to Europe, air cargo delivery, air freight, air transportation of dangerous goods</t>
   </si>
   <si>
-    <t>11.07.2024</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.com</t>
-  </si>
-  <si>
-    <t>1.com/7</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>https://t-h-logistics.com/en/truck</t>
   </si>
   <si>
@@ -154,6 +421,21 @@
     <t>Establishing a company in Ukraine, registration of a legal entity, the cost of opening a company, the cost of registering a business, the cost of a legal entity, the budget for registering a company</t>
   </si>
   <si>
+    <t>battle-station.com</t>
+  </si>
+  <si>
+    <t>https://www.battle-station.com/viewtopic.php?f=21&amp;t=76168</t>
+  </si>
+  <si>
+    <t>доставка вантажів</t>
+  </si>
+  <si>
+    <t>taylorhicks.ning.com</t>
+  </si>
+  <si>
+    <t>https://taylorhicks.ning.com/forum/topics/cost-of-opening-a-company-in-ukraine-trans-hope-provides-clarity</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/hr_search_in_ukraine</t>
   </si>
   <si>
@@ -163,6 +445,33 @@
     <t>recruitment, recruiting in Ukraine, HR-services, recruitment agency, employment in Ukraine, personnel management, search for specialists, personnel consulting, HR-consulting, personal resources of Ukraine</t>
   </si>
   <si>
+    <t>dropbox.com</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/scl/fi/yhmk8f6m657rjv67dqab0/Professional-HR-Solutions-in-Ukraine.paper?dl=0&amp;rlkey=oc1pzjbq84w5hf2265map21aw</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>mentorship.healthyseminars.com</t>
+  </si>
+  <si>
+    <t>https://mentorship.healthyseminars.com/members/masonscott/</t>
+  </si>
+  <si>
+    <t>Мультимодальна доставка</t>
+  </si>
+  <si>
+    <t>.prep.youth4work.com</t>
+  </si>
+  <si>
+    <t>https://www.prep.youth4work.com/placement-papers/capgemini-test/forum/37578-hr-search-in-ukraine-trans-hope-your-solution-for-professional-staffing</t>
+  </si>
+  <si>
+    <t>портове експедирування</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/tax_reporting_in_ukraine</t>
   </si>
   <si>
@@ -172,6 +481,33 @@
     <t>tax reporting, tax returns, tax liabilities, tax rates, tax regulations, tax legislation, accounting and taxes, tax changes, tax obligations, tax administration</t>
   </si>
   <si>
+    <t>divephotoguide.com</t>
+  </si>
+  <si>
+    <t>https://www.divephotoguide.com/user/HarperYoung</t>
+  </si>
+  <si>
+    <t>стоимость доставки контейнеров</t>
+  </si>
+  <si>
+    <t>forum.posilovani.net</t>
+  </si>
+  <si>
+    <t>http://forum.posilovani.net/index.php?action=vthread&amp;forum=12&amp;topic=9698</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>onfeetnation.com</t>
+  </si>
+  <si>
+    <t>https://www.onfeetnation.com/forum/topics/needs-your-help-7</t>
+  </si>
+  <si>
+    <t>Умови використання послуг митного оформлення</t>
+  </si>
+  <si>
     <t>24.10.2023</t>
   </si>
   <si>
@@ -184,6 +520,24 @@
     <t>business account, corporate account, banking services for companies, banking services for legal entities, financial activity of organizations, account in the bank of Ukraine, opening an account for the company, banking services for companies</t>
   </si>
   <si>
+    <t>glose.com</t>
+  </si>
+  <si>
+    <t>https://glose.com/u/HenryMit</t>
+  </si>
+  <si>
+    <t>доставка грузов</t>
+  </si>
+  <si>
+    <t>tauchvideo.com</t>
+  </si>
+  <si>
+    <t>http://www.tauchvideo.com/index.php?go=forum&amp;f=1&amp;t=11142</t>
+  </si>
+  <si>
+    <t>морские контейнерные перевозки</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/taxation_forms_in_ukraine</t>
   </si>
   <si>
@@ -193,6 +547,60 @@
     <t>tax regimes, tax system, tax liabilities, tax rate, tax benefits, tax payment, tax optimization, tax regime for business, tax accounting, fiscal policy, tax reporting, tax obligations</t>
   </si>
   <si>
+    <t>27/07/2024</t>
+  </si>
+  <si>
+    <t>gabitos.com</t>
+  </si>
+  <si>
+    <t>https://www.gabitos.com/DESENMASCARANDO_LAS_FALSAS_DOCTRINAS/template.php?nm=1729810642</t>
+  </si>
+  <si>
+    <t>os.mbed.com</t>
+  </si>
+  <si>
+    <t>https://os.mbed.com/users/noahwalker/</t>
+  </si>
+  <si>
+    <t>trade agent ukraine</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>sketchfab.com</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com/3d-models/taxation-in-ukraine-5df3d1667e074cfda998910a24e55f71</t>
+  </si>
+  <si>
+    <t>услуга импортера</t>
+  </si>
+  <si>
+    <t>hebergementweb.org</t>
+  </si>
+  <si>
+    <t>https://www.hebergementweb.org/threads/navigating-taxation-in-ukraine-expert-guidance-from-trans-hope.1153735/</t>
+  </si>
+  <si>
+    <t>Стоимость Перевозки Контейнера Морем</t>
+  </si>
+  <si>
+    <t>developers.oxwall.com</t>
+  </si>
+  <si>
+    <t>https://developers.oxwall.com/forum/topic/91787</t>
+  </si>
+  <si>
+    <t>Вантажні авіаперевезення</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/Exploring-Taxation-Options-in-Ukraine-Selecting-the-Ideal-Tax-Regime-for-Your-Business-12-25</t>
+  </si>
+  <si>
+    <t>customs broker Kiev</t>
+  </si>
+  <si>
     <t>23.10.2023</t>
   </si>
   <si>
@@ -205,6 +613,57 @@
     <t>address of incorporation in Ukraine, registration of legal address, tax address, office space, legal registration, choice of location, company reputation, tax liabilities</t>
   </si>
   <si>
+    <t>techplanet.today</t>
+  </si>
+  <si>
+    <t>https://techplanet.today/post/essential-guide-to-legal-addresses-in-ukraine</t>
+  </si>
+  <si>
+    <t>rent legal address in Ukraine</t>
+  </si>
+  <si>
+    <t>instapaper.com</t>
+  </si>
+  <si>
+    <t>https://www.instapaper.com/read/1678225545</t>
+  </si>
+  <si>
+    <t>Доставка вантажів</t>
+  </si>
+  <si>
+    <t>https://glose.com/activity/6632145a554395d67d2323cf</t>
+  </si>
+  <si>
+    <t>Доставка грузов</t>
+  </si>
+  <si>
+    <t>forum.worldwindcentral.com</t>
+  </si>
+  <si>
+    <t>https://forum.worldwindcentral.com/forum/world-wind-community/worldwind-general/173231-running-a-successful-business-in-ukraine</t>
+  </si>
+  <si>
+    <t>Морские контейнерные перевозки</t>
+  </si>
+  <si>
+    <t>myworldgo.com</t>
+  </si>
+  <si>
+    <t>https://myworldgo.com/forums/topic/137021/rent-legal-address-in-ukraine/view/post_id/1440005</t>
+  </si>
+  <si>
+    <t>Фрахт контейнера</t>
+  </si>
+  <si>
+    <t>opensource.platon.org</t>
+  </si>
+  <si>
+    <t>http://opensource.platon.org/forum/projects/viewtopic.php?p=12541489</t>
+  </si>
+  <si>
+    <t>Документы при экспорте товара</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
@@ -214,6 +673,48 @@
     <t>property in Ukraine, property registration, ownership rules, forms of ownership in business, ownership of real estate, property and taxes, types of ownership</t>
   </si>
   <si>
+    <t>lessons.drawspace.com</t>
+  </si>
+  <si>
+    <t>https://lessons.drawspace.com/post/802486/understanding-forms-of-ownership-in-ukraine</t>
+  </si>
+  <si>
+    <t>outdoorproject.com</t>
+  </si>
+  <si>
+    <t>https://www.outdoorproject.com/users/valeriia-tarasenko</t>
+  </si>
+  <si>
+    <t>Forms of ownership in Ukraine</t>
+  </si>
+  <si>
+    <t>plurk.com</t>
+  </si>
+  <si>
+    <t>https://www.plurk.com/HarperCook/public</t>
+  </si>
+  <si>
+    <t>Авіа перевезення</t>
+  </si>
+  <si>
+    <t>forum.amzgame.com</t>
+  </si>
+  <si>
+    <t>https://forum.amzgame.com/thread/detail?id=298369</t>
+  </si>
+  <si>
+    <t>відповідальність митного брокера</t>
+  </si>
+  <si>
+    <t>forum-divorcedmoms.azurewebsites.net</t>
+  </si>
+  <si>
+    <t>https://forum-divorcedmoms.azurewebsites.net/posts/m21517-Navigating-Forms-of-Ownership-in-Ukraine-with-Trans-Hope</t>
+  </si>
+  <si>
+    <t>Интермодальные перевозки</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/opening_a_company_in_ukraine</t>
   </si>
   <si>
@@ -223,6 +724,36 @@
     <t>company registration, business in Ukraine, startup in Ukraine, entrepreneurship in Ukraine, establish a company, tax legislation, registration rules, documents for business</t>
   </si>
   <si>
+    <t>penzu.com</t>
+  </si>
+  <si>
+    <t>https://penzu.com/p/58467a4b685b045e</t>
+  </si>
+  <si>
+    <t>permacultureglobal.org</t>
+  </si>
+  <si>
+    <t>https://permacultureglobal.org/users/59182-william-murphy</t>
+  </si>
+  <si>
+    <t>Авиа перевозка грузов</t>
+  </si>
+  <si>
+    <t>workingus.com</t>
+  </si>
+  <si>
+    <t>https://www.workingus.com/forums/topic/excel-in-programming-with-professional-homework-assistance/</t>
+  </si>
+  <si>
+    <t>Услуги таможенного брокера цена</t>
+  </si>
+  <si>
+    <t>https://myworldgo.com/forums/topic/124616/i-m-considering-starting-a-company-in-ukraine/view/post_id/1339952</t>
+  </si>
+  <si>
+    <t>Cargo delivery to Ukraine</t>
+  </si>
+  <si>
     <t>22.10.2023</t>
   </si>
   <si>
@@ -235,6 +766,39 @@
     <t>trade intermediary, foreign trade agent, export consultant, import broker, foreign trade consultancy, world trade, international business, trade with Ukraine, foreign economic activity</t>
   </si>
   <si>
+    <t>pubhtml5.com/homepage/pkpfy/</t>
+  </si>
+  <si>
+    <t>https://pubhtml5.com/homepage/pkpfy/</t>
+  </si>
+  <si>
+    <t>metooo.com</t>
+  </si>
+  <si>
+    <t>https://www.metooo.com/u/benjaminevans</t>
+  </si>
+  <si>
+    <t>Митні брокери київа</t>
+  </si>
+  <si>
+    <t>mysportsgo.com</t>
+  </si>
+  <si>
+    <t>https://www.mysportsgo.com/forums/topic/20904/anyone-know-about-trade-agent-services-in-ukraine/view/post_id/701971</t>
+  </si>
+  <si>
+    <t>Політика конфіденційності в перевезеннях</t>
+  </si>
+  <si>
+    <t>medium.com</t>
+  </si>
+  <si>
+    <t>https://medium.com/@orlova1999vin/trade-agents-in-ukraine-your-gateway-to-global-trade-success-2c00b4be5502</t>
+  </si>
+  <si>
+    <t>Customs brokerage costs Kyiv Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/foreign_trade_consulting</t>
   </si>
   <si>
@@ -256,6 +820,30 @@
     <t>multimodal logistics, combined transport, multimodal transportation, global multimodal solutions, freight optimization, multimodal transportation in Europe, multimodal freight transportation, multimodal transportation within the country, multimodal delivery, multimodal transport</t>
   </si>
   <si>
+    <t>gravatar.com</t>
+  </si>
+  <si>
+    <t>https://gravatar.com/kd250266</t>
+  </si>
+  <si>
+    <t>авто перевозки</t>
+  </si>
+  <si>
+    <t>https://lessons.drawspace.com/post/721832/moving-goods-from-one-point-to-another</t>
+  </si>
+  <si>
+    <t>Переваги морських контейнерних перевезень</t>
+  </si>
+  <si>
+    <t>speakoutu.org</t>
+  </si>
+  <si>
+    <t>https://speakoutu.org/our-forum/topic/multimodal-transportation-ukraine-streamlining-freight-logistics-with-trans-hope/</t>
+  </si>
+  <si>
+    <t>Авто доставка грузов из Европы</t>
+  </si>
+  <si>
     <t>19.10.2023</t>
   </si>
   <si>
@@ -268,6 +856,57 @@
     <t>air freight costs, air freight rates, air freight rates, air freight prices, air freight costs, air freight costs, air freight costs, budget for air freight, air freight savings, air freight costs</t>
   </si>
   <si>
+    <t>webyourself.eu</t>
+  </si>
+  <si>
+    <t>https://webyourself.eu/forums/thread/14952/International-air-cargo-rates</t>
+  </si>
+  <si>
+    <t>https://forum.amzgame.com/thread/detail?id=311337</t>
+  </si>
+  <si>
+    <t>files.fm</t>
+  </si>
+  <si>
+    <t>https://files.fm/PedroFernandes/info</t>
+  </si>
+  <si>
+    <t>экспедирование в порту</t>
+  </si>
+  <si>
+    <t>intensedebate.com</t>
+  </si>
+  <si>
+    <t>https://www.thuum.org/viewthread.php?thread=4233&amp;newthread=true</t>
+  </si>
+  <si>
+    <t>flokii.com</t>
+  </si>
+  <si>
+    <t>https://www.flokii.com/questions/view/5862/organizing-freight-transportation</t>
+  </si>
+  <si>
+    <t>Митне оформлення</t>
+  </si>
+  <si>
+    <t>thefreeworldpress.com</t>
+  </si>
+  <si>
+    <t>https://www.thefreeworldpress.com/forums/topic/17768/air-freight-to-ukraine</t>
+  </si>
+  <si>
+    <t>авто перевезення</t>
+  </si>
+  <si>
+    <t>chambers.com.au</t>
+  </si>
+  <si>
+    <t>https://www.chambers.com.au/forum/view_post.php?frm=1&amp;pstid=54596&amp;pstcl=&amp;kwd=</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/ua/blog/searching-for-suppliers-in-china</t>
+  </si>
+  <si>
     <t>15.10.2023</t>
   </si>
   <si>
@@ -280,6 +919,48 @@
     <t>ukraine, international delivery from Europe, logistics of cargoes from Europe, import from Europe, export to Europe, cargo transportation to Europe, transportation of goods from Europe, European deliveries, transportation of cargoes through Europe</t>
   </si>
   <si>
+    <t>artstation.com</t>
+  </si>
+  <si>
+    <t>https://www.artstation.com/artwork/JvyZeR</t>
+  </si>
+  <si>
+    <t>producthunt.com</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@lucassantos</t>
+  </si>
+  <si>
+    <t>консультирование таможня вэд</t>
+  </si>
+  <si>
+    <t>pastebin.com</t>
+  </si>
+  <si>
+    <t>https://justpaste.me/iI22</t>
+  </si>
+  <si>
+    <t>Стоимость контейнерной перевозки</t>
+  </si>
+  <si>
+    <t>debwan.com</t>
+  </si>
+  <si>
+    <t>https://www.debwan.com/forums/thread/6735/Advantages-of-the-truck-shipment-from-Europe</t>
+  </si>
+  <si>
+    <t>Митні режими в Україні</t>
+  </si>
+  <si>
+    <t>nedrago.com</t>
+  </si>
+  <si>
+    <t>https://www.nedrago.com/forums/topic/cargo-delivery-from-europe-to-ukraine-seamless-logistics-solutions/</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
+  </si>
+  <si>
     <t>13.10.2023</t>
   </si>
   <si>
@@ -292,6 +973,15 @@
     <t>sea freight forwarding, port services, port freight forwarding, port logistics, port cargo handling, marine terminals, port infrastructure, port cargo, sea transportation</t>
   </si>
   <si>
+    <t>hulkshare.com</t>
+  </si>
+  <si>
+    <t>https://www.hulkshare.com/AlexTurner</t>
+  </si>
+  <si>
+    <t>Trade agent service in Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/customs_brokerage_services_cost</t>
   </si>
   <si>
@@ -301,6 +991,24 @@
     <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
   </si>
   <si>
+    <t>https://mernetwork.com/index/showthread.php?21043-Customs-Brokerage-Services-Ukraine</t>
+  </si>
+  <si>
+    <t>Митний Брокер Київ</t>
+  </si>
+  <si>
+    <t>17/03/2024</t>
+  </si>
+  <si>
+    <t>heylink.me</t>
+  </si>
+  <si>
+    <t>https://heylink.me/vpavlenko/</t>
+  </si>
+  <si>
+    <t>what forms of taxation in Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/customs_broker</t>
   </si>
   <si>
@@ -310,6 +1018,21 @@
     <t>customs broker Ukraine, customs brokerage services, customs clearance, customs broker Kiev, customs broker Odessa, customs broker Lviv, customs services, international trade, import and export, customs declaration, brokerage services</t>
   </si>
   <si>
+    <t>linktr.ee</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/CustomsbrokerUA?lt_utm_source=lt_admin_share_link</t>
+  </si>
+  <si>
+    <t>walkscore.com</t>
+  </si>
+  <si>
+    <t>https://www.walkscore.com/people/105879419523/roberthall</t>
+  </si>
+  <si>
+    <t>tax reporting service in Ukraine</t>
+  </si>
+  <si>
     <t>12.10.2023</t>
   </si>
   <si>
@@ -337,6 +1060,12 @@
     <t>Cookies</t>
   </si>
   <si>
+    <t>adrex.com</t>
+  </si>
+  <si>
+    <t>https://www.adrex.com/en/forum/climbing/argo-delivery-41888/</t>
+  </si>
+  <si>
     <t>05.10.2023</t>
   </si>
   <si>
@@ -367,6 +1096,12 @@
     <t>About us</t>
   </si>
   <si>
+    <t>https://webyourself.eu/forums/thread/11040/International-Shipping</t>
+  </si>
+  <si>
+    <t>доставка вантажів з Китаю</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/customs_clearance</t>
   </si>
   <si>
@@ -385,6 +1120,21 @@
     <t>sea container transportations, sea transportations to Ukraine, sea logistics, container transportations, sea freight, international sea transportations, container sea transportations, sea transport, container transportations by sea, sea forwarding, sea lines, sea transportations of goods, sea delivery, sea freight transportations, container logistics, sea transportation, sea freight services.</t>
   </si>
   <si>
+    <t>letterboxd.com</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/crafta/film/logistics-2011/</t>
+  </si>
+  <si>
+    <t>Sea container transportation port Odessa</t>
+  </si>
+  <si>
+    <t>https://www.tadalive.com/forum/thread/45229/sea-container-transportation-to-ukraine/</t>
+  </si>
+  <si>
+    <t>Таможенный брокер</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/en/truck_delivery</t>
   </si>
   <si>
@@ -406,6 +1156,12 @@
     <t>Air transportation, Air cargo transportation, International air transportation, Air cargo transportation, Air cargo transportation, Air cargo logistics, Air freight, Air cargo transportation, Air logistics, Air cargo transportation, Air cargo transportation, Air transportation from China, Air transportation to Europe, Air cargo transportation, Air cargo transportation, Air cargo transportation, Air transportation of dangerous goods</t>
   </si>
   <si>
+    <t>hackerrank.com</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/diagonal-difference/forum/comments/1432203</t>
+  </si>
+  <si>
     <t>Page Seo</t>
   </si>
   <si>
@@ -608,51 +1364,6 @@
   </si>
   <si>
     <t>Odesa, ports, export, agricultural products, grain, Ukraine, food security</t>
-  </si>
-  <si>
-    <t>05.09.2024</t>
-  </si>
-  <si>
-    <t>хххх</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>xxx.com</t>
-  </si>
-  <si>
-    <t>xxx.com/x1</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>superblogs.com.ua</t>
-  </si>
-  <si>
-    <t>https:/superblogs.com.ua/post4.html</t>
-  </si>
-  <si>
-    <t>таможенне оформления 5</t>
-  </si>
-  <si>
-    <t>17/05/2022</t>
-  </si>
-  <si>
-    <t>Doska Obyavleniy</t>
-  </si>
-  <si>
-    <t>https:/superblogs.com.ua/post5.html</t>
-  </si>
-  <si>
-    <t>таможенне оформления 6</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K132"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -1112,950 +1823,956 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>12</v>
-      </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>113</v>
-      </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2081,16 +2798,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2116,16 +2827,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2151,16 +2862,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2186,16 +2897,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2221,16 +2932,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2256,16 +2967,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2291,16 +3002,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
         <v>131</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2326,217 +3037,217 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -2548,100 +3259,100 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -2653,200 +3364,200 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2863,340 +3574,340 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="K56" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="K57" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="K58" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I62" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J62" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="K62" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3213,25 +3924,25 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="I63" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J63" t="s">
-        <v>209</v>
-      </c>
-      <c r="K63">
-        <v>14</v>
+        <v>230</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3248,59 +3959,2404 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="I64" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J64" t="s">
-        <v>213</v>
-      </c>
-      <c r="K64">
-        <v>17</v>
+        <v>233</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" t="s">
+        <v>240</v>
+      </c>
+      <c r="J66" t="s">
+        <v>241</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>242</v>
+      </c>
+      <c r="I67" t="s">
+        <v>243</v>
+      </c>
+      <c r="J67" t="s">
+        <v>244</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s">
+        <v>211</v>
+      </c>
+      <c r="I68" t="s">
+        <v>245</v>
+      </c>
+      <c r="J68" t="s">
+        <v>246</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>251</v>
+      </c>
+      <c r="I69" t="s">
+        <v>252</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s">
+        <v>253</v>
+      </c>
+      <c r="I70" t="s">
+        <v>254</v>
+      </c>
+      <c r="J70" t="s">
+        <v>255</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
+        <v>256</v>
+      </c>
+      <c r="I71" t="s">
+        <v>257</v>
+      </c>
+      <c r="J71" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s">
+        <v>259</v>
+      </c>
+      <c r="I72" t="s">
+        <v>260</v>
+      </c>
+      <c r="J72" t="s">
+        <v>261</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>265</v>
+      </c>
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s">
+        <v>269</v>
+      </c>
+      <c r="I74" t="s">
+        <v>270</v>
+      </c>
+      <c r="J74" t="s">
+        <v>271</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>220</v>
+      </c>
+      <c r="I75" t="s">
+        <v>272</v>
+      </c>
+      <c r="J75" t="s">
+        <v>273</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" t="s">
+        <v>275</v>
+      </c>
+      <c r="J76" t="s">
+        <v>276</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>281</v>
+      </c>
+      <c r="I77" t="s">
+        <v>282</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
+        <v>228</v>
+      </c>
+      <c r="I78" t="s">
+        <v>283</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>284</v>
+      </c>
+      <c r="I79" t="s">
+        <v>285</v>
+      </c>
+      <c r="J79" t="s">
+        <v>286</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" t="s">
+        <v>288</v>
+      </c>
+      <c r="J80" t="s">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>289</v>
+      </c>
+      <c r="I81" t="s">
+        <v>290</v>
+      </c>
+      <c r="J81" t="s">
+        <v>291</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>292</v>
+      </c>
+      <c r="I82" t="s">
+        <v>293</v>
+      </c>
+      <c r="J82" t="s">
+        <v>294</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83" t="s">
+        <v>296</v>
+      </c>
+      <c r="J83" t="s">
+        <v>297</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" t="s">
+        <v>303</v>
+      </c>
+      <c r="J84" t="s">
+        <v>103</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>146</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>304</v>
+      </c>
+      <c r="I85" t="s">
+        <v>305</v>
+      </c>
+      <c r="J85" t="s">
+        <v>306</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s">
+        <v>307</v>
+      </c>
+      <c r="I86" t="s">
+        <v>308</v>
+      </c>
+      <c r="J86" t="s">
+        <v>309</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>310</v>
+      </c>
+      <c r="I87" t="s">
+        <v>311</v>
+      </c>
+      <c r="J87" t="s">
+        <v>312</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>313</v>
+      </c>
+      <c r="I88" t="s">
+        <v>314</v>
+      </c>
+      <c r="J88" t="s">
+        <v>315</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>320</v>
+      </c>
+      <c r="I89" t="s">
+        <v>321</v>
+      </c>
+      <c r="J89" t="s">
+        <v>322</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>316</v>
+      </c>
+      <c r="B90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>325</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s">
+        <v>326</v>
+      </c>
+      <c r="J90" t="s">
+        <v>327</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>329</v>
+      </c>
+      <c r="I91" t="s">
+        <v>330</v>
+      </c>
+      <c r="J91" t="s">
+        <v>331</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" t="s">
+        <v>334</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s">
+        <v>335</v>
+      </c>
+      <c r="I92" t="s">
+        <v>336</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>337</v>
+      </c>
+      <c r="I93" t="s">
+        <v>338</v>
+      </c>
+      <c r="J93" t="s">
+        <v>339</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>340</v>
+      </c>
+      <c r="B94" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D94" t="s">
+        <v>343</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" t="s">
+        <v>346</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>340</v>
+      </c>
+      <c r="B96" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>349</v>
+      </c>
+      <c r="I96" t="s">
+        <v>350</v>
+      </c>
+      <c r="J96" t="s">
+        <v>294</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>351</v>
+      </c>
+      <c r="B98" t="s">
+        <v>355</v>
+      </c>
+      <c r="C98" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" t="s">
+        <v>357</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>351</v>
+      </c>
+      <c r="B99" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s">
+        <v>281</v>
+      </c>
+      <c r="I99" t="s">
+        <v>361</v>
+      </c>
+      <c r="J99" t="s">
+        <v>362</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+      <c r="C100" t="s">
+        <v>364</v>
+      </c>
+      <c r="D100" t="s">
+        <v>365</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" t="s">
+        <v>366</v>
+      </c>
+      <c r="C101" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" t="s">
+        <v>368</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" t="s">
+        <v>369</v>
+      </c>
+      <c r="I101" t="s">
+        <v>370</v>
+      </c>
+      <c r="J101" t="s">
+        <v>371</v>
+      </c>
+      <c r="K101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" t="s">
+        <v>104</v>
+      </c>
+      <c r="I102" t="s">
+        <v>372</v>
+      </c>
+      <c r="J102" t="s">
+        <v>373</v>
+      </c>
+      <c r="K102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>351</v>
+      </c>
+      <c r="B103" t="s">
+        <v>374</v>
+      </c>
+      <c r="C103" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" t="s">
+        <v>376</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>377</v>
+      </c>
+      <c r="B104" t="s">
+        <v>378</v>
+      </c>
+      <c r="C104" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" t="s">
+        <v>380</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>381</v>
+      </c>
+      <c r="I104" t="s">
+        <v>382</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" t="s">
+        <v>12</v>
+      </c>
+      <c r="K105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" t="s">
+        <v>12</v>
+      </c>
+      <c r="K106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" t="s">
+        <v>384</v>
+      </c>
+      <c r="C107" t="s">
+        <v>385</v>
+      </c>
+      <c r="D107" t="s">
+        <v>386</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" t="s">
+        <v>12</v>
+      </c>
+      <c r="K107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" t="s">
+        <v>387</v>
+      </c>
+      <c r="C108" t="s">
+        <v>388</v>
+      </c>
+      <c r="D108" t="s">
+        <v>389</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" t="s">
+        <v>12</v>
+      </c>
+      <c r="K108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" t="s">
+        <v>392</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" t="s">
+        <v>12</v>
+      </c>
+      <c r="K109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" t="s">
+        <v>393</v>
+      </c>
+      <c r="C110" t="s">
+        <v>394</v>
+      </c>
+      <c r="D110" t="s">
+        <v>395</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>396</v>
+      </c>
+      <c r="B111" t="s">
+        <v>397</v>
+      </c>
+      <c r="C111" t="s">
+        <v>398</v>
+      </c>
+      <c r="D111" t="s">
+        <v>399</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" t="s">
+        <v>12</v>
+      </c>
+      <c r="K112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>400</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" t="s">
+        <v>12</v>
+      </c>
+      <c r="K113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>401</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" t="s">
+        <v>403</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" t="s">
+        <v>12</v>
+      </c>
+      <c r="K115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>404</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" t="s">
+        <v>405</v>
+      </c>
+      <c r="C117" t="s">
+        <v>406</v>
+      </c>
+      <c r="D117" t="s">
+        <v>407</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118" t="s">
+        <v>409</v>
+      </c>
+      <c r="C118" t="s">
+        <v>410</v>
+      </c>
+      <c r="D118" t="s">
+        <v>411</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>412</v>
+      </c>
+      <c r="B119" t="s">
+        <v>413</v>
+      </c>
+      <c r="C119" t="s">
+        <v>414</v>
+      </c>
+      <c r="D119" t="s">
+        <v>415</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" t="s">
+        <v>12</v>
+      </c>
+      <c r="K119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>416</v>
+      </c>
+      <c r="B120" t="s">
+        <v>417</v>
+      </c>
+      <c r="C120" t="s">
+        <v>418</v>
+      </c>
+      <c r="D120" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" t="s">
+        <v>12</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>420</v>
+      </c>
+      <c r="B121" t="s">
+        <v>421</v>
+      </c>
+      <c r="C121" t="s">
+        <v>422</v>
+      </c>
+      <c r="D121" t="s">
+        <v>423</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" t="s">
+        <v>12</v>
+      </c>
+      <c r="K123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>425</v>
+      </c>
+      <c r="B124" t="s">
+        <v>426</v>
+      </c>
+      <c r="C124" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" t="s">
+        <v>428</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>12</v>
+      </c>
+      <c r="K124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>425</v>
+      </c>
+      <c r="B125" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" t="s">
+        <v>430</v>
+      </c>
+      <c r="D125" t="s">
+        <v>431</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" t="s">
+        <v>12</v>
+      </c>
+      <c r="K125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>425</v>
+      </c>
+      <c r="B126" t="s">
+        <v>432</v>
+      </c>
+      <c r="C126" t="s">
+        <v>433</v>
+      </c>
+      <c r="D126" t="s">
+        <v>434</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" t="s">
+        <v>12</v>
+      </c>
+      <c r="K126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>435</v>
+      </c>
+      <c r="B127" t="s">
+        <v>436</v>
+      </c>
+      <c r="C127" t="s">
+        <v>437</v>
+      </c>
+      <c r="D127" t="s">
+        <v>438</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" t="s">
+        <v>12</v>
+      </c>
+      <c r="K127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>435</v>
+      </c>
+      <c r="B128" t="s">
+        <v>439</v>
+      </c>
+      <c r="C128" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" t="s">
+        <v>441</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>435</v>
+      </c>
+      <c r="B129" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" t="s">
+        <v>443</v>
+      </c>
+      <c r="D129" t="s">
+        <v>444</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>435</v>
+      </c>
+      <c r="B130" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" t="s">
+        <v>446</v>
+      </c>
+      <c r="D130" t="s">
+        <v>447</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" t="s">
+        <v>12</v>
+      </c>
+      <c r="K130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>435</v>
+      </c>
+      <c r="B131" t="s">
+        <v>448</v>
+      </c>
+      <c r="C131" t="s">
+        <v>449</v>
+      </c>
+      <c r="D131" t="s">
+        <v>450</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" t="s">
+        <v>12</v>
+      </c>
+      <c r="K131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
+      </c>
+      <c r="K132" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesEN-SEO.xlsx
+++ b/allPages/allPagesEN-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="480">
   <si>
     <t>Date</t>
   </si>
@@ -79,7 +79,7 @@
     <t>delivery of goods from China to Ukraine</t>
   </si>
   <si>
-    <t>0</t>
+    <t>-</t>
   </si>
   <si>
     <t>4</t>
@@ -109,7 +109,7 @@
     <t>https://www.hahalolo.com/post/6692b7f46656616b119d7d7f</t>
   </si>
   <si>
-    <t>-</t>
+    <t>logistics service</t>
   </si>
   <si>
     <t>Profile</t>
@@ -127,6 +127,9 @@
     <t>https://muckrack.com/logistic-companyua/bio</t>
   </si>
   <si>
+    <t>Customs clearance of goods</t>
+  </si>
+  <si>
     <t>ted.com</t>
   </si>
   <si>
@@ -163,22 +166,19 @@
     <t>https://forum.ds3club.co.uk/forum/the-paddock/general-chat/484219-sea-container-transportation</t>
   </si>
   <si>
-    <t>митний Брокер Київ</t>
-  </si>
-  <si>
     <t>durovis.com</t>
   </si>
   <si>
     <t>https://www.durovis.com/en/board_topic_24294.html</t>
   </si>
   <si>
-    <t>авіа перевезення</t>
+    <t>Delivery to Ukraine</t>
   </si>
   <si>
     <t>https://magentoexpertforum.com/showthread.php/36271-Tips-for-cargo-delivery-in-Ukraine</t>
   </si>
   <si>
-    <t>фрахт контейнера</t>
+    <t>Cargo delivery in Ukraine</t>
   </si>
   <si>
     <t>26/02/2024</t>
@@ -190,7 +190,7 @@
     <t>https://apiscrapy.createaforum.com/general-discussion/customs-clearance-trans-hope-ensures-smooth-and-efficient-cargo-processing/</t>
   </si>
   <si>
-    <t>консультации ВЭД</t>
+    <t>Customs clearance</t>
   </si>
   <si>
     <t>azmepakistan.tv</t>
@@ -199,7 +199,7 @@
     <t>https://azmepakistan.tv/forums/topic/32902/-/view/post_id/473023</t>
   </si>
   <si>
-    <t>торговий агент в Україні</t>
+    <t>Supplier search Ukraine</t>
   </si>
   <si>
     <t>drrajeshgastro.com</t>
@@ -208,7 +208,7 @@
     <t>https://drrajeshgastro.com/myforum/showthread.php?tid=9486</t>
   </si>
   <si>
-    <t>Trans-Hope</t>
+    <t>Cargo consolidation in Ukraine</t>
   </si>
   <si>
     <t>bbs.heyshell.com</t>
@@ -217,7 +217,7 @@
     <t>https://bbs.heyshell.com/forum.php?mod=viewthread&amp;tid=27029&amp;extra=</t>
   </si>
   <si>
-    <t>авто доставка</t>
+    <t>Cargo delivery to Ukraine</t>
   </si>
   <si>
     <t>mcthings.createaforum.com</t>
@@ -226,7 +226,7 @@
     <t>https://mcthings.createaforum.com/general-discussion/foreign-trade-consultations-ukraine-trans-hope-your-expert-advisory-partner/</t>
   </si>
   <si>
-    <t>таможенное оформление</t>
+    <t>Foreign trade consultations Ukraine</t>
   </si>
   <si>
     <t>30/01/2024</t>
@@ -238,979 +238,1066 @@
     <t>http://forum.thesolutionist.us/forum?view=thread&amp;id=71</t>
   </si>
   <si>
+    <t>open a business in Ukraine</t>
+  </si>
+  <si>
+    <t>moneyfx.boardhost.com</t>
+  </si>
+  <si>
+    <t>https://moneyfx.boardhost.com/viewtopic.php?pid=18909</t>
+  </si>
+  <si>
+    <t>How get legal address in Ukraine</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
+  </si>
+  <si>
+    <t>janubaba.com</t>
+  </si>
+  <si>
+    <t>https://www.janubaba.com/c/forum/topic/228806/Advertisment/Can_someone_recommend_a_reliable_logistics_service</t>
+  </si>
+  <si>
+    <t>organiqo.com</t>
+  </si>
+  <si>
+    <t>https://organiqo.com/index.php/forum/thread/1638/need-a-reliable-trade-agent-to-assist-with-the-process/</t>
+  </si>
+  <si>
+    <t>trade agent ukraine</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>webhitlist.com</t>
+  </si>
+  <si>
+    <t>https://webhitlist.com/forum/topics/can-anyone-recommend-a-service-that-could-help</t>
+  </si>
+  <si>
+    <t>Tax reporting in Ukraine</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>issuu.com</t>
+  </si>
+  <si>
+    <t>https://issuu.com/ilmaryangvilnius</t>
+  </si>
+  <si>
+    <t>flickr.com</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/people/199060986@N03/</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>robotech.com</t>
+  </si>
+  <si>
+    <t>https://robotech.com/forums/viewthread/1758066/P30</t>
+  </si>
+  <si>
+    <t>Auto Transportation</t>
+  </si>
+  <si>
+    <t>hashtap.com</t>
+  </si>
+  <si>
+    <t>https://www.hashtap.com/@valeriy.devochkin/customs-clearance-ukraine-KPl974LAWKMJ</t>
+  </si>
+  <si>
+    <t>Customs clearance Ukraine</t>
+  </si>
+  <si>
+    <t>tadalive.com</t>
+  </si>
+  <si>
+    <t>https://www.tadalive.com/forum/thread/18530/can-anyone-suggest-a-reliable-service-for-cargo-delivery/</t>
+  </si>
+  <si>
+    <t>Cargo delivery</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/123-123</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>03.11.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/test</t>
+  </si>
+  <si>
+    <t>15.08.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/business_in_ukraine</t>
+  </si>
+  <si>
+    <t>Foreign Economic Activity, delivery and customs clearance services in Ukraine in Kiev, Lviv, Odessa</t>
+  </si>
+  <si>
+    <t>trade intermediary, foreign trade agent, export consultant, import broker, foreign trade consultancy, world trade, international business, trade with Ukraine, foreign economic activity.</t>
+  </si>
+  <si>
+    <t>14.08.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/customs</t>
+  </si>
+  <si>
+    <t>Customs broker and customs clearance in Ukraine Kiev, Odessa, Lviv, Ukraine</t>
+  </si>
+  <si>
+    <t>customs clearance Kiev, customs clearance services Lviv, customs broker Odessa, calculation of customs payments, cargo escort, customs documents, customs services</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/sea</t>
+  </si>
+  <si>
+    <t>Maritime container transportation and cargo delivery from USA and China to Ukraine</t>
+  </si>
+  <si>
+    <t>cargo delivery from USA to Ukraine, sea container transportation, delivery from China to Ukraine, container transportation Ukraine, sea delivery from China, international sea transportation</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/air</t>
+  </si>
+  <si>
+    <t>Air delivery and air cargo transportation to Ukraine: fast and reliable</t>
+  </si>
+  <si>
+    <t>air cargo transportation Ukraine, air delivery to Ukraine, international air delivery, transportation of cargo by air, air logistics Ukraine, express air delivery, air freight, air cargo transportation, air logistics, air cargo transportation, air transportation from China, air transportation to Europe, air cargo delivery, air freight, air transportation of dangerous goods</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/truck</t>
+  </si>
+  <si>
+    <t>Auto transportation and cargo delivery from Europe: fast and safe solutions</t>
+  </si>
+  <si>
+    <t>auto transportation from Europe, delivery of goods by auto transport, international auto delivery, transportation of goods from Europe, auto logistics Europe, delivery of goods by auto transport.</t>
+  </si>
+  <si>
+    <t>12.08.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/usefull</t>
+  </si>
+  <si>
+    <t>Useful materials on customs clearance and cargo delivery: tips and instructions</t>
+  </si>
+  <si>
+    <t>customs clearance, shipping instructions, logistics and customs clearance, successful cargo delivery, how to deliver cargo through customs</t>
+  </si>
+  <si>
+    <t>25.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/cost_of_opening_a_legal_entity_in_ukraine</t>
+  </si>
+  <si>
+    <t>Cost of Opening a Legal Entity in Ukraine: Detailed Overview and Calculations</t>
+  </si>
+  <si>
+    <t>Establishing a company in Ukraine, registration of a legal entity, the cost of opening a company, the cost of registering a business, the cost of a legal entity, the budget for registering a company</t>
+  </si>
+  <si>
+    <t>battle-station.com</t>
+  </si>
+  <si>
+    <t>https://www.battle-station.com/viewtopic.php?f=21&amp;t=76168</t>
+  </si>
+  <si>
+    <t>taylorhicks.ning.com</t>
+  </si>
+  <si>
+    <t>https://taylorhicks.ning.com/forum/topics/cost-of-opening-a-company-in-ukraine-trans-hope-provides-clarity</t>
+  </si>
+  <si>
+    <t>cost of opening a company in Ukraine</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/hr_search_in_ukraine</t>
+  </si>
+  <si>
+    <t>Effective Personnel Search in Ukraine: Professional HR Solutions</t>
+  </si>
+  <si>
+    <t>recruitment, recruiting in Ukraine, HR-services, recruitment agency, employment in Ukraine, personnel management, search for specialists, personnel consulting, HR-consulting, personal resources of Ukraine</t>
+  </si>
+  <si>
+    <t>dropbox.com</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/scl/fi/yhmk8f6m657rjv67dqab0/Professional-HR-Solutions-in-Ukraine.paper?dl=0&amp;rlkey=oc1pzjbq84w5hf2265map21aw</t>
+  </si>
+  <si>
+    <t>professional HR Solutions in Ukraine</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>mentorship.healthyseminars.com</t>
+  </si>
+  <si>
+    <t>https://mentorship.healthyseminars.com/members/masonscott/</t>
+  </si>
+  <si>
+    <t>.prep.youth4work.com</t>
+  </si>
+  <si>
+    <t>https://www.prep.youth4work.com/placement-papers/capgemini-test/forum/37578-hr-search-in-ukraine-trans-hope-your-solution-for-professional-staffing</t>
+  </si>
+  <si>
+    <t>HR search in Ukraine</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/tax_reporting_in_ukraine</t>
+  </si>
+  <si>
+    <t>Tax Reporting in Ukraine: Detailed Overview and Rules of Reporting Preparation</t>
+  </si>
+  <si>
+    <t>tax reporting, tax returns, tax liabilities, tax rates, tax regulations, tax legislation, accounting and taxes, tax changes, tax obligations, tax administration</t>
+  </si>
+  <si>
+    <t>divephotoguide.com</t>
+  </si>
+  <si>
+    <t>https://www.divephotoguide.com/user/HarperYoung</t>
+  </si>
+  <si>
+    <t>forum.posilovani.net</t>
+  </si>
+  <si>
+    <t>http://forum.posilovani.net/index.php?action=vthread&amp;forum=12&amp;topic=9698</t>
+  </si>
+  <si>
+    <t>Tax Reporting in Ukraine</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>onfeetnation.com</t>
+  </si>
+  <si>
+    <t>https://www.onfeetnation.com/forum/topics/needs-your-help-7</t>
+  </si>
+  <si>
+    <t>tax reporting service in Ukraine</t>
+  </si>
+  <si>
+    <t>24.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/bank_account_in_ukraine</t>
+  </si>
+  <si>
+    <t>Opening and Maintaining a Bank Account for Legal Entities in Ukraine: A complete guide</t>
+  </si>
+  <si>
+    <t>business account, corporate account, banking services for companies, banking services for legal entities, financial activity of organizations, account in the bank of Ukraine, opening an account for the company, banking services for companies</t>
+  </si>
+  <si>
+    <t>glose.com</t>
+  </si>
+  <si>
+    <t>https://glose.com/u/HenryMit</t>
+  </si>
+  <si>
+    <t>tauchvideo.com</t>
+  </si>
+  <si>
+    <t>http://www.tauchvideo.com/index.php?go=forum&amp;f=1&amp;t=11142</t>
+  </si>
+  <si>
+    <t>OpenBank Account in Ukraine</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/taxation_forms_in_ukraine</t>
+  </si>
+  <si>
+    <t>Forms of taxation in Ukraine: How to choose the right tax regime for your business</t>
+  </si>
+  <si>
+    <t>tax regimes, tax system, tax liabilities, tax rate, tax benefits, tax payment, tax optimization, tax regime for business, tax accounting, fiscal policy, tax reporting, tax obligations</t>
+  </si>
+  <si>
+    <t>27/07/2024</t>
+  </si>
+  <si>
+    <t>gabitos.com</t>
+  </si>
+  <si>
+    <t>https://www.gabitos.com/DESENMASCARANDO_LAS_FALSAS_DOCTRINAS/template.php?nm=1729810642</t>
+  </si>
+  <si>
+    <t>Forms of taxation in Ukraine</t>
+  </si>
+  <si>
+    <t>os.mbed.com</t>
+  </si>
+  <si>
+    <t>https://os.mbed.com/users/noahwalker/</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>sketchfab.com</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com/3d-models/taxation-in-ukraine-5df3d1667e074cfda998910a24e55f71</t>
+  </si>
+  <si>
+    <t>Taxation in Ukraine</t>
+  </si>
+  <si>
+    <t>hebergementweb.org</t>
+  </si>
+  <si>
+    <t>https://www.hebergementweb.org/threads/navigating-taxation-in-ukraine-expert-guidance-from-trans-hope.1153735/</t>
+  </si>
+  <si>
+    <t>developers.oxwall.com</t>
+  </si>
+  <si>
+    <t>https://developers.oxwall.com/forum/topic/91787</t>
+  </si>
+  <si>
+    <t>what forms of taxation in Ukraine</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/Exploring-Taxation-Options-in-Ukraine-Selecting-the-Ideal-Tax-Regime-for-Your-Business-12-25</t>
+  </si>
+  <si>
+    <t>23.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/legal_address_in_ukraine</t>
+  </si>
+  <si>
+    <t>Legal Address in Ukraine: An Important Element for Your Business</t>
+  </si>
+  <si>
+    <t>address of incorporation in Ukraine, registration of legal address, tax address, office space, legal registration, choice of location, company reputation, tax liabilities</t>
+  </si>
+  <si>
+    <t>techplanet.today</t>
+  </si>
+  <si>
+    <t>https://techplanet.today/post/essential-guide-to-legal-addresses-in-ukraine</t>
+  </si>
+  <si>
+    <t>rent legal address in Ukraine</t>
+  </si>
+  <si>
+    <t>instapaper.com</t>
+  </si>
+  <si>
+    <t>https://www.instapaper.com/read/1678225545</t>
+  </si>
+  <si>
+    <t>https://glose.com/activity/6632145a554395d67d2323cf</t>
+  </si>
+  <si>
+    <t>Rent legal address in Ukraine</t>
+  </si>
+  <si>
+    <t>forum.worldwindcentral.com</t>
+  </si>
+  <si>
+    <t>https://forum.worldwindcentral.com/forum/world-wind-community/worldwind-general/173231-running-a-successful-business-in-ukraine</t>
+  </si>
+  <si>
+    <t>myworldgo.com</t>
+  </si>
+  <si>
+    <t>https://myworldgo.com/forums/topic/137021/rent-legal-address-in-ukraine/view/post_id/1440005</t>
+  </si>
+  <si>
+    <t>opensource.platon.org</t>
+  </si>
+  <si>
+    <t>http://opensource.platon.org/forum/projects/viewtopic.php?p=12541489</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/main_forms_of_ownership_in_ukraine</t>
+  </si>
+  <si>
+    <t>Forms of Ownership in Ukraine: Everything You Need to Know</t>
+  </si>
+  <si>
+    <t>property in Ukraine, property registration, ownership rules, forms of ownership in business, ownership of real estate, property and taxes, types of ownership</t>
+  </si>
+  <si>
+    <t>lessons.drawspace.com</t>
+  </si>
+  <si>
+    <t>https://lessons.drawspace.com/post/802486/understanding-forms-of-ownership-in-ukraine</t>
+  </si>
+  <si>
+    <t>Forms of ownership in Ukraine</t>
+  </si>
+  <si>
+    <t>outdoorproject.com</t>
+  </si>
+  <si>
+    <t>https://www.outdoorproject.com/users/valeriia-tarasenko</t>
+  </si>
+  <si>
+    <t>plurk.com</t>
+  </si>
+  <si>
+    <t>https://www.plurk.com/HarperCook/public</t>
+  </si>
+  <si>
+    <t>forum.amzgame.com</t>
+  </si>
+  <si>
+    <t>https://forum.amzgame.com/thread/detail?id=298369</t>
+  </si>
+  <si>
+    <t>forum-divorcedmoms.azurewebsites.net</t>
+  </si>
+  <si>
+    <t>https://forum-divorcedmoms.azurewebsites.net/posts/m21517-Navigating-Forms-of-Ownership-in-Ukraine-with-Trans-Hope</t>
+  </si>
+  <si>
+    <t>Forms of Ownership in Ukraine</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/opening_a_company_in_ukraine</t>
+  </si>
+  <si>
+    <t>Starting a Legal Entity in Ukraine: Step by Step Guidance and Tips</t>
+  </si>
+  <si>
+    <t>company registration, business in Ukraine, startup in Ukraine, entrepreneurship in Ukraine, establish a company, tax legislation, registration rules, documents for business</t>
+  </si>
+  <si>
+    <t>penzu.com</t>
+  </si>
+  <si>
+    <t>https://penzu.com/p/58467a4b685b045e</t>
+  </si>
+  <si>
+    <t>Starting a company in Ukraine</t>
+  </si>
+  <si>
+    <t>permacultureglobal.org</t>
+  </si>
+  <si>
+    <t>https://permacultureglobal.org/users/59182-william-murphy</t>
+  </si>
+  <si>
+    <t>workingus.com</t>
+  </si>
+  <si>
+    <t>https://www.workingus.com/forums/topic/excel-in-programming-with-professional-homework-assistance/</t>
+  </si>
+  <si>
+    <t>Starting a Legal Entity in Ukraine</t>
+  </si>
+  <si>
+    <t>https://myworldgo.com/forums/topic/124616/i-m-considering-starting-a-company-in-ukraine/view/post_id/1339952</t>
+  </si>
+  <si>
+    <t>22.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/trade_agent_in_ukraine</t>
+  </si>
+  <si>
+    <t>Trade Agent in Ukraine: Effective Support for your Foreign Trade Business</t>
+  </si>
+  <si>
+    <t>trade intermediary, foreign trade agent, export consultant, import broker, foreign trade consultancy, world trade, international business, trade with Ukraine, foreign economic activity</t>
+  </si>
+  <si>
+    <t>pubhtml5.com/homepage/pkpfy/</t>
+  </si>
+  <si>
+    <t>https://pubhtml5.com/homepage/pkpfy/</t>
+  </si>
+  <si>
+    <t>metooo.com</t>
+  </si>
+  <si>
+    <t>https://www.metooo.com/u/benjaminevans</t>
+  </si>
+  <si>
+    <t>mysportsgo.com</t>
+  </si>
+  <si>
+    <t>https://www.mysportsgo.com/forums/topic/20904/anyone-know-about-trade-agent-services-in-ukraine/view/post_id/701971</t>
+  </si>
+  <si>
+    <t>Trade agent service in Ukraine</t>
+  </si>
+  <si>
+    <t>medium.com</t>
+  </si>
+  <si>
+    <t>https://medium.com/@orlova1999vin/trade-agents-in-ukraine-your-gateway-to-global-trade-success-2c00b4be5502</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/foreign_trade_consulting</t>
+  </si>
+  <si>
+    <t>Foreign Economic Activity Consulting: Expert Guidance on Foreign Economic Activity</t>
+  </si>
+  <si>
+    <t>Foreign Economic Activity Consulting, Foreign Economic Activity Services, export-import consulting, customs consulting, international trade, export procedures, import regulations, Foreign Economic Expert, foreign economic activity</t>
+  </si>
+  <si>
+    <t>21.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/multimodal_transportation</t>
+  </si>
+  <si>
+    <t>Multimodal Transportation: Optimizing Freight Transportation in Europe and the World</t>
+  </si>
+  <si>
+    <t>multimodal logistics, combined transport, multimodal transportation, global multimodal solutions, freight optimization, multimodal transportation in Europe, multimodal freight transportation, multimodal transportation within the country, multimodal delivery, multimodal transport</t>
+  </si>
+  <si>
+    <t>gravatar.com</t>
+  </si>
+  <si>
+    <t>https://gravatar.com/kd250266</t>
+  </si>
+  <si>
+    <t>https://lessons.drawspace.com/post/721832/moving-goods-from-one-point-to-another</t>
+  </si>
+  <si>
+    <t>global multimodal solutions</t>
+  </si>
+  <si>
+    <t>speakoutu.org</t>
+  </si>
+  <si>
+    <t>https://speakoutu.org/our-forum/topic/multimodal-transportation-ukraine-streamlining-freight-logistics-with-trans-hope/</t>
+  </si>
+  <si>
+    <t>multimodal transportation Ukraine</t>
+  </si>
+  <si>
+    <t>19.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/airfreight_costs</t>
+  </si>
+  <si>
+    <t>Air Freight Costs: How to Calculate and Optimize Your Expenses</t>
+  </si>
+  <si>
+    <t>air freight costs, air freight rates, air freight rates, air freight prices, air freight costs, air freight costs, air freight costs, budget for air freight, air freight savings, air freight costs</t>
+  </si>
+  <si>
+    <t>webyourself.eu</t>
+  </si>
+  <si>
+    <t>https://webyourself.eu/forums/thread/14952/International-air-cargo-rates</t>
+  </si>
+  <si>
+    <t>airfreight costs</t>
+  </si>
+  <si>
+    <t>https://forum.amzgame.com/thread/detail?id=311337</t>
+  </si>
+  <si>
+    <t>files.fm</t>
+  </si>
+  <si>
+    <t>https://files.fm/PedroFernandes/info</t>
+  </si>
+  <si>
+    <t>intensedebate.com</t>
+  </si>
+  <si>
+    <t>https://www.thuum.org/viewthread.php?thread=4233&amp;newthread=true</t>
+  </si>
+  <si>
+    <t>flokii.com</t>
+  </si>
+  <si>
+    <t>https://www.flokii.com/questions/view/5862/organizing-freight-transportation</t>
+  </si>
+  <si>
+    <t>thefreeworldpress.com</t>
+  </si>
+  <si>
+    <t>https://www.thefreeworldpress.com/forums/topic/17768/air-freight-to-ukraine</t>
+  </si>
+  <si>
+    <t>air freight rates Ukraine</t>
+  </si>
+  <si>
+    <t>chambers.com.au</t>
+  </si>
+  <si>
+    <t>https://www.chambers.com.au/forum/view_post.php?frm=1&amp;pstid=54596&amp;pstcl=&amp;kwd=</t>
+  </si>
+  <si>
+    <t>Air freight costs Ukraine</t>
+  </si>
+  <si>
+    <t>15.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/cargo_delivery_from_Europe</t>
+  </si>
+  <si>
+    <t>Cargo delivery from Europe: Efficient Logistics for Your Business</t>
+  </si>
+  <si>
+    <t>ukraine, international delivery from Europe, logistics of cargoes from Europe, import from Europe, export to Europe, cargo transportation to Europe, transportation of goods from Europe, European deliveries, transportation of cargoes through Europe</t>
+  </si>
+  <si>
+    <t>artstation.com</t>
+  </si>
+  <si>
+    <t>https://www.artstation.com/artwork/JvyZeR</t>
+  </si>
+  <si>
+    <t>Cargo delivery from Europe to Ukraine</t>
+  </si>
+  <si>
+    <t>producthunt.com</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@lucassantos</t>
+  </si>
+  <si>
+    <t>pastebin.com</t>
+  </si>
+  <si>
+    <t>https://justpaste.me/iI22</t>
+  </si>
+  <si>
+    <t>debwan.com</t>
+  </si>
+  <si>
+    <t>https://www.debwan.com/forums/thread/6735/Advantages-of-the-truck-shipment-from-Europe</t>
+  </si>
+  <si>
+    <t>nedrago.com</t>
+  </si>
+  <si>
+    <t>https://www.nedrago.com/forums/topic/cargo-delivery-from-europe-to-ukraine-seamless-logistics-solutions/</t>
+  </si>
+  <si>
+    <t>13.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/port_forwarding</t>
+  </si>
+  <si>
+    <t>Port Forwarding in Ukraine - Reliable Logistics of Your Cargoes</t>
+  </si>
+  <si>
+    <t>sea freight forwarding, port services, port freight forwarding, port logistics, port cargo handling, marine terminals, port infrastructure, port cargo, sea transportation</t>
+  </si>
+  <si>
+    <t>hulkshare.com</t>
+  </si>
+  <si>
+    <t>https://www.hulkshare.com/AlexTurner</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/customs_brokerage_services_cost</t>
+  </si>
+  <si>
+    <t>Cost of Customs Brokerage Services in Ukraine: Professional Assistance and Optimization of Foreign Economic Activity</t>
+  </si>
+  <si>
+    <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
+  </si>
+  <si>
+    <t>https://mernetwork.com/index/showthread.php?21043-Customs-Brokerage-Services-Ukraine</t>
+  </si>
+  <si>
+    <t>customs service rates in Ukraine</t>
+  </si>
+  <si>
+    <t>17/03/2024</t>
+  </si>
+  <si>
+    <t>heylink.me</t>
+  </si>
+  <si>
+    <t>https://heylink.me/vpavlenko/</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/customs_broker</t>
+  </si>
+  <si>
+    <t>Customs broker Ukraine: Professional services in Kiev, Odessa and Lviv</t>
+  </si>
+  <si>
+    <t>customs broker Ukraine, customs brokerage services, customs clearance, customs broker Kiev, customs broker Odessa, customs broker Lviv, customs services, international trade, import and export, customs declaration, brokerage services</t>
+  </si>
+  <si>
+    <t>linktr.ee</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/CustomsbrokerUA?lt_utm_source=lt_admin_share_link</t>
+  </si>
+  <si>
+    <t>Customs broker</t>
+  </si>
+  <si>
+    <t>walkscore.com</t>
+  </si>
+  <si>
+    <t>https://www.walkscore.com/people/105879419523/roberthall</t>
+  </si>
+  <si>
+    <t>12.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/fqas</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions (FAQs)</t>
+  </si>
+  <si>
+    <t>FAQ Questions and Answers, Customer Information, Explanation of Services, Typical Questions, User Guide, Frequent Requests, Detailed Answers, Help and Tips, Customer Support</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/help</t>
+  </si>
+  <si>
+    <t>Help &amp; Support: Your Guide to the World of Shipping and Customs Clearance</t>
+  </si>
+  <si>
+    <t>customer service, customer support, customer assistance, customer help, frequently asked questions, customer service contacts, customer support, feedback, shipping assistance, customer counseling, technical support</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/cookies</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>adrex.com</t>
+  </si>
+  <si>
+    <t>https://www.adrex.com/en/forum/climbing/argo-delivery-41888/</t>
+  </si>
+  <si>
+    <t>Cookies registration of a legal entity in Ukraine</t>
+  </si>
+  <si>
+    <t>05.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/terms_conditions</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>terms of use, terms of service, terms of use, terms of use policy, terms of use agreement, terms of use, terms of service, terms of service agreement, terms of use of the website, user agreement, terms of security, terms of security, terms of delivery, customs clearance agreement, terms of data processing</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/privacy_policy</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Data privacy, personal data protection, personal data processing, website privacy policy, consent to data processing, data protection regulations, GDPR, data protection, information security, data protection assurance, customer privacy policy</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/about_us</t>
+  </si>
+  <si>
+    <t>About Us: Trans-Hope, Your Reliable Partner in Shipping and Customs Clearance</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>https://webyourself.eu/forums/thread/11040/International-Shipping</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/customs_clearance</t>
+  </si>
+  <si>
+    <t>Professional Customs Clearance in Ukraine: Fast and Reliable</t>
+  </si>
+  <si>
+    <t>customs clearance, customs clearance services Ukraine, customs broker Kiev, customs payments calculation, cargo escort, customs documents, customs services Odessa</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/container_delivery</t>
+  </si>
+  <si>
+    <t>Sea Container Transportation to Ukraine: Reliable and Economical</t>
+  </si>
+  <si>
+    <t>sea container transportations, sea transportations to Ukraine, sea logistics, container transportations, sea freight, international sea transportations, container sea transportations, sea transport, container transportations by sea, sea forwarding, sea lines, sea transportations of goods, sea delivery, sea freight transportations, container logistics, sea transportation, sea freight services.</t>
+  </si>
+  <si>
+    <t>letterboxd.com</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/crafta/film/logistics-2011/</t>
+  </si>
+  <si>
+    <t>Sea container transportation port Odessa</t>
+  </si>
+  <si>
+    <t>https://www.tadalive.com/forum/thread/45229/sea-container-transportation-to-ukraine/</t>
+  </si>
+  <si>
     <t>maritime logistics in Ukraine</t>
   </si>
   <si>
-    <t>moneyfx.boardhost.com</t>
-  </si>
-  <si>
-    <t>https://moneyfx.boardhost.com/viewtopic.php?pid=18909</t>
+    <t>https://t-h-logistics.com/en/truck_delivery</t>
+  </si>
+  <si>
+    <t>Trucking: Reliable and Efficient Transportation of Your Cargo</t>
+  </si>
+  <si>
+    <t>Road Trucking, Road Freight, Road Freight Logistics, Road Freight Logistics, Road Freight Trucks, Road Freight Services, Road Freight Services, Road Freight Delivery, Road Freight Delivery, Road Freight Transportation, Road Freight Services, Road Freight Logistics, Road Freight, Road Freight, Road Freight Logistics Services, Road Freight Trucking, Road Freight Trucks, Road Freight Vans, Professional Road Freight Services</t>
+  </si>
+  <si>
+    <t>04.09.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/air_delivery</t>
+  </si>
+  <si>
+    <t>Air transportation: fast, reliable and efficient</t>
+  </si>
+  <si>
+    <t>Air transportation, Air cargo transportation, International air transportation, Air cargo transportation, Air cargo transportation, Air cargo logistics, Air freight, Air cargo transportation, Air logistics, Air cargo transportation, Air cargo transportation, Air transportation from China, Air transportation to Europe, Air cargo transportation, Air cargo transportation, Air cargo transportation, Air transportation of dangerous goods</t>
+  </si>
+  <si>
+    <t>hackerrank.com</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/diagonal-difference/forum/comments/1432203</t>
+  </si>
+  <si>
+    <t>air transportation to Ukraine</t>
+  </si>
+  <si>
+    <t>Page Seo</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/service/sea_container_freight_rate</t>
+  </si>
+  <si>
+    <t>Cost of Container Transportation by Sea: Reliable and Competitive Rates</t>
+  </si>
+  <si>
+    <t>price of sea transportation of containers, tariffs for sea transportation, cost of transportation by sea, rates for transportation by sea container, tariffs for container transportation</t>
+  </si>
+  <si>
+    <t>paradisosolutions.com</t>
+  </si>
+  <si>
+    <t>https://www.paradisosolutions.com/community/question/the-cost-of-container-transportation-by-sea-key-factors-and-benefits/</t>
+  </si>
+  <si>
+    <t>cost of transportation by sea</t>
+  </si>
+  <si>
+    <t>hashnode.com</t>
+  </si>
+  <si>
+    <t>https://bitcoinik.hashnode.dev/the-economics-of-container-transportation-understanding-the-cost-dynamics</t>
+  </si>
+  <si>
+    <t>https://robotech.com/forums/viewthread/2222590</t>
+  </si>
+  <si>
+    <t>anobii.com</t>
+  </si>
+  <si>
+    <t>https://www.anobii.com/en/forum_thread?topicId=3489558</t>
   </si>
   <si>
     <t>rates for transportation by sea container</t>
   </si>
   <si>
-    <t>20/01/2024</t>
-  </si>
-  <si>
-    <t>janubaba.com</t>
-  </si>
-  <si>
-    <t>https://www.janubaba.com/c/forum/topic/228806/Advertisment/Can_someone_recommend_a_reliable_logistics_service</t>
-  </si>
-  <si>
-    <t>Таможенное оформление</t>
-  </si>
-  <si>
-    <t>organiqo.com</t>
-  </si>
-  <si>
-    <t>https://organiqo.com/index.php/forum/thread/1638/need-a-reliable-trade-agent-to-assist-with-the-process/</t>
-  </si>
-  <si>
-    <t>стоимость авиа перевозок</t>
-  </si>
-  <si>
-    <t>20/12/2023</t>
-  </si>
-  <si>
-    <t>webhitlist.com</t>
-  </si>
-  <si>
-    <t>https://webhitlist.com/forum/topics/can-anyone-recommend-a-service-that-could-help</t>
-  </si>
-  <si>
-    <t>multimodal transportation Ukraine</t>
-  </si>
-  <si>
-    <t>issuu.com</t>
-  </si>
-  <si>
-    <t>https://issuu.com/ilmaryangvilnius</t>
-  </si>
-  <si>
-    <t>Cargo consolidation in Ukraine</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>flickr.com</t>
-  </si>
-  <si>
-    <t>https://www.flickr.com/people/199060986@N03/</t>
-  </si>
-  <si>
-    <t>Foreign trade consultations Ukraine</t>
-  </si>
-  <si>
-    <t>10/12/2023</t>
-  </si>
-  <si>
-    <t>robotech.com</t>
-  </si>
-  <si>
-    <t>https://robotech.com/forums/viewthread/1758066/P30</t>
-  </si>
-  <si>
-    <t>консультації ЗЕД</t>
-  </si>
-  <si>
-    <t>hashtap.com</t>
-  </si>
-  <si>
-    <t>https://www.hashtap.com/@valeriy.devochkin/customs-clearance-ukraine-KPl974LAWKMJ</t>
-  </si>
-  <si>
-    <t>Cargo delivery from Europe to Ukraine</t>
-  </si>
-  <si>
-    <t>tadalive.com</t>
-  </si>
-  <si>
-    <t>https://www.tadalive.com/forum/thread/18530/can-anyone-suggest-a-reliable-service-for-cargo-delivery/</t>
-  </si>
-  <si>
-    <t>Air freight costs Ukraine</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/123-123</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>03.11.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/test</t>
-  </si>
-  <si>
-    <t>15.08.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/business_in_ukraine</t>
-  </si>
-  <si>
-    <t>Foreign Economic Activity, delivery and customs clearance services in Ukraine in Kiev, Lviv, Odessa</t>
-  </si>
-  <si>
-    <t>trade intermediary, foreign trade agent, export consultant, import broker, foreign trade consultancy, world trade, international business, trade with Ukraine, foreign economic activity.</t>
-  </si>
-  <si>
-    <t>14.08.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/customs</t>
-  </si>
-  <si>
-    <t>Customs broker and customs clearance in Ukraine Kiev, Odessa, Lviv, Ukraine</t>
-  </si>
-  <si>
-    <t>customs clearance Kiev, customs clearance services Lviv, customs broker Odessa, calculation of customs payments, cargo escort, customs documents, customs services</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/sea</t>
-  </si>
-  <si>
-    <t>Maritime container transportation and cargo delivery from USA and China to Ukraine</t>
-  </si>
-  <si>
-    <t>cargo delivery from USA to Ukraine, sea container transportation, delivery from China to Ukraine, container transportation Ukraine, sea delivery from China, international sea transportation</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/air</t>
-  </si>
-  <si>
-    <t>Air delivery and air cargo transportation to Ukraine: fast and reliable</t>
-  </si>
-  <si>
-    <t>air cargo transportation Ukraine, air delivery to Ukraine, international air delivery, transportation of cargo by air, air logistics Ukraine, express air delivery, air freight, air cargo transportation, air logistics, air cargo transportation, air transportation from China, air transportation to Europe, air cargo delivery, air freight, air transportation of dangerous goods</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/truck</t>
-  </si>
-  <si>
-    <t>Auto transportation and cargo delivery from Europe: fast and safe solutions</t>
-  </si>
-  <si>
-    <t>auto transportation from Europe, delivery of goods by auto transport, international auto delivery, transportation of goods from Europe, auto logistics Europe, delivery of goods by auto transport.</t>
-  </si>
-  <si>
-    <t>12.08.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/usefull</t>
-  </si>
-  <si>
-    <t>Useful materials on customs clearance and cargo delivery: tips and instructions</t>
-  </si>
-  <si>
-    <t>customs clearance, shipping instructions, logistics and customs clearance, successful cargo delivery, how to deliver cargo through customs</t>
-  </si>
-  <si>
-    <t>25.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/cost_of_opening_a_legal_entity_in_ukraine</t>
-  </si>
-  <si>
-    <t>Cost of Opening a Legal Entity in Ukraine: Detailed Overview and Calculations</t>
-  </si>
-  <si>
-    <t>Establishing a company in Ukraine, registration of a legal entity, the cost of opening a company, the cost of registering a business, the cost of a legal entity, the budget for registering a company</t>
-  </si>
-  <si>
-    <t>battle-station.com</t>
-  </si>
-  <si>
-    <t>https://www.battle-station.com/viewtopic.php?f=21&amp;t=76168</t>
-  </si>
-  <si>
-    <t>доставка вантажів</t>
-  </si>
-  <si>
-    <t>taylorhicks.ning.com</t>
-  </si>
-  <si>
-    <t>https://taylorhicks.ning.com/forum/topics/cost-of-opening-a-company-in-ukraine-trans-hope-provides-clarity</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/hr_search_in_ukraine</t>
-  </si>
-  <si>
-    <t>Effective Personnel Search in Ukraine: Professional HR Solutions</t>
-  </si>
-  <si>
-    <t>recruitment, recruiting in Ukraine, HR-services, recruitment agency, employment in Ukraine, personnel management, search for specialists, personnel consulting, HR-consulting, personal resources of Ukraine</t>
-  </si>
-  <si>
-    <t>dropbox.com</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/scl/fi/yhmk8f6m657rjv67dqab0/Professional-HR-Solutions-in-Ukraine.paper?dl=0&amp;rlkey=oc1pzjbq84w5hf2265map21aw</t>
-  </si>
-  <si>
-    <t>27/05/2024</t>
-  </si>
-  <si>
-    <t>mentorship.healthyseminars.com</t>
-  </si>
-  <si>
-    <t>https://mentorship.healthyseminars.com/members/masonscott/</t>
-  </si>
-  <si>
-    <t>Мультимодальна доставка</t>
-  </si>
-  <si>
-    <t>.prep.youth4work.com</t>
-  </si>
-  <si>
-    <t>https://www.prep.youth4work.com/placement-papers/capgemini-test/forum/37578-hr-search-in-ukraine-trans-hope-your-solution-for-professional-staffing</t>
-  </si>
-  <si>
-    <t>портове експедирування</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/tax_reporting_in_ukraine</t>
-  </si>
-  <si>
-    <t>Tax Reporting in Ukraine: Detailed Overview and Rules of Reporting Preparation</t>
-  </si>
-  <si>
-    <t>tax reporting, tax returns, tax liabilities, tax rates, tax regulations, tax legislation, accounting and taxes, tax changes, tax obligations, tax administration</t>
-  </si>
-  <si>
-    <t>divephotoguide.com</t>
-  </si>
-  <si>
-    <t>https://www.divephotoguide.com/user/HarperYoung</t>
-  </si>
-  <si>
-    <t>стоимость доставки контейнеров</t>
-  </si>
-  <si>
-    <t>forum.posilovani.net</t>
-  </si>
-  <si>
-    <t>http://forum.posilovani.net/index.php?action=vthread&amp;forum=12&amp;topic=9698</t>
-  </si>
-  <si>
-    <t>30/12/2023</t>
-  </si>
-  <si>
-    <t>onfeetnation.com</t>
-  </si>
-  <si>
-    <t>https://www.onfeetnation.com/forum/topics/needs-your-help-7</t>
-  </si>
-  <si>
-    <t>Умови використання послуг митного оформлення</t>
-  </si>
-  <si>
-    <t>24.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/bank_account_in_ukraine</t>
-  </si>
-  <si>
-    <t>Opening and Maintaining a Bank Account for Legal Entities in Ukraine: A complete guide</t>
-  </si>
-  <si>
-    <t>business account, corporate account, banking services for companies, banking services for legal entities, financial activity of organizations, account in the bank of Ukraine, opening an account for the company, banking services for companies</t>
-  </si>
-  <si>
-    <t>glose.com</t>
-  </si>
-  <si>
-    <t>https://glose.com/u/HenryMit</t>
-  </si>
-  <si>
-    <t>доставка грузов</t>
-  </si>
-  <si>
-    <t>tauchvideo.com</t>
-  </si>
-  <si>
-    <t>http://www.tauchvideo.com/index.php?go=forum&amp;f=1&amp;t=11142</t>
-  </si>
-  <si>
-    <t>морские контейнерные перевозки</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/taxation_forms_in_ukraine</t>
-  </si>
-  <si>
-    <t>Forms of taxation in Ukraine: How to choose the right tax regime for your business</t>
-  </si>
-  <si>
-    <t>tax regimes, tax system, tax liabilities, tax rate, tax benefits, tax payment, tax optimization, tax regime for business, tax accounting, fiscal policy, tax reporting, tax obligations</t>
-  </si>
-  <si>
-    <t>27/07/2024</t>
-  </si>
-  <si>
-    <t>gabitos.com</t>
-  </si>
-  <si>
-    <t>https://www.gabitos.com/DESENMASCARANDO_LAS_FALSAS_DOCTRINAS/template.php?nm=1729810642</t>
-  </si>
-  <si>
-    <t>os.mbed.com</t>
-  </si>
-  <si>
-    <t>https://os.mbed.com/users/noahwalker/</t>
-  </si>
-  <si>
-    <t>trade agent ukraine</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>sketchfab.com</t>
-  </si>
-  <si>
-    <t>https://sketchfab.com/3d-models/taxation-in-ukraine-5df3d1667e074cfda998910a24e55f71</t>
-  </si>
-  <si>
-    <t>услуга импортера</t>
-  </si>
-  <si>
-    <t>hebergementweb.org</t>
-  </si>
-  <si>
-    <t>https://www.hebergementweb.org/threads/navigating-taxation-in-ukraine-expert-guidance-from-trans-hope.1153735/</t>
-  </si>
-  <si>
-    <t>Стоимость Перевозки Контейнера Морем</t>
-  </si>
-  <si>
-    <t>developers.oxwall.com</t>
-  </si>
-  <si>
-    <t>https://developers.oxwall.com/forum/topic/91787</t>
-  </si>
-  <si>
-    <t>Вантажні авіаперевезення</t>
-  </si>
-  <si>
-    <t>https://telegra.ph/Exploring-Taxation-Options-in-Ukraine-Selecting-the-Ideal-Tax-Regime-for-Your-Business-12-25</t>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>my.archdaily.com</t>
+  </si>
+  <si>
+    <t>https://my.archdaily.com/us/@t-h-logistics</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/service/container_freight_rate</t>
+  </si>
+  <si>
+    <t>Container Freight: Exact prices and flexible conditions for freight transportation</t>
+  </si>
+  <si>
+    <t>sea container freight rates, container freight rates, container freight tariffs, sea freight prices, freight tariffs</t>
+  </si>
+  <si>
+    <t>123articleonline.com</t>
+  </si>
+  <si>
+    <t>https://www.123articleonline.com/articles/1417389/how-container-shipping-works</t>
+  </si>
+  <si>
+    <t>Container freight cost</t>
+  </si>
+  <si>
+    <t>imageevent.com</t>
+  </si>
+  <si>
+    <t>https://imageevent.com/susanbaker/containerfreightkeyfeaturesandpric</t>
+  </si>
+  <si>
+    <t>whoosmind.com</t>
+  </si>
+  <si>
+    <t>https://whoosmind.com/forums/thread/3583/</t>
+  </si>
+  <si>
+    <t>knowmedge.com</t>
+  </si>
+  <si>
+    <t>https://knowmedge.com/medical_boards_forum/viewtopic.php?f=22&amp;t=6830</t>
+  </si>
+  <si>
+    <t>Container freight tariffs</t>
+  </si>
+  <si>
+    <t>veoh.com</t>
+  </si>
+  <si>
+    <t>https://www.veoh.com/users/thlogistics</t>
+  </si>
+  <si>
+    <t>padelforum.org</t>
+  </si>
+  <si>
+    <t>https://www.padelforum.org/threads/trans-hope-your-reliable-partner-for-container-freight-services.430716/</t>
+  </si>
+  <si>
+    <t>Container freight</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/service/intermodal_transportation</t>
+  </si>
+  <si>
+    <t>Intermodal Transportation: Efficiency and Reliability in Global Logistics</t>
+  </si>
+  <si>
+    <t>intermodal freight transportation, multimodal transportation, combined transportation, transportation of goods by different modes of transportation</t>
+  </si>
+  <si>
+    <t>nairaland.com</t>
+  </si>
+  <si>
+    <t>https://www.nairaland.com/8237989/intermodal-transportation</t>
+  </si>
+  <si>
+    <t>Intermodal transportation</t>
+  </si>
+  <si>
+    <t>sites.google.com</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/intermodal-transportation/</t>
+  </si>
+  <si>
+    <t>babelcube.com</t>
+  </si>
+  <si>
+    <t>https://www.babelcube.com/user/thlogistics-com</t>
+  </si>
+  <si>
+    <t>https://forum-divorcedmoms.azurewebsites.net/posts/m21514-Seamless-Global-Logistics-with-Trans-Hope--Harnessing-the-Power-of-Intermodal-Transportation</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/service/customs_broker_services_price</t>
+  </si>
+  <si>
+    <t>Costs for Customs Brokerage Services: Transparency and Efficiency, Kyiv Ukraine</t>
+  </si>
+  <si>
+    <t>price of customs services, cost of brokerage services, customs clearance tariffs, customs brokerage rates, customs services pricing policy, brokerage fees, customs clearance price, cost of customs brokerage services</t>
+  </si>
+  <si>
+    <t>lwccareers.lindsey.edu</t>
+  </si>
+  <si>
+    <t>https://lwccareers.lindsey.edu/profiles/4909482-dany-kruger</t>
+  </si>
+  <si>
+    <t>pinshape.com</t>
+  </si>
+  <si>
+    <t>https://pinshape.com/users/3409975-thlogisticscom</t>
+  </si>
+  <si>
+    <t>forum.instube.com</t>
+  </si>
+  <si>
+    <t>https://forum.instube.com/d/82667-customs-brokerage-costs-kyiv-ukraine-transparency-and-efficiency</t>
+  </si>
+  <si>
+    <t>Customs brokerage costs Kyiv Ukraine</t>
+  </si>
+  <si>
+    <t>02.09.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/en/service/customs_broker_kyiv</t>
+  </si>
+  <si>
+    <t>Customs Broker Kiev: Effective Customs Support for Your Business</t>
+  </si>
+  <si>
+    <t>export and import of goods, customs consulting, brokerage services for international trade, customs procedures, customs consultancy, customs consultant, brokerage services Kiev, customs fees, customs clearance of goods</t>
+  </si>
+  <si>
+    <t>tumblr.com</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/customsbrokerkyiv</t>
+  </si>
+  <si>
+    <t>Customs broker Kiev</t>
+  </si>
+  <si>
+    <t>bakespace.com</t>
+  </si>
+  <si>
+    <t>https://www.bakespace.com/members/profile/thlogistics/1623467/</t>
+  </si>
+  <si>
+    <t>ungl.org</t>
+  </si>
+  <si>
+    <t>https://ungl.org/forums/1/108478</t>
   </si>
   <si>
     <t>customs broker Kiev</t>
-  </si>
-  <si>
-    <t>23.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/legal_address_in_ukraine</t>
-  </si>
-  <si>
-    <t>Legal Address in Ukraine: An Important Element for Your Business</t>
-  </si>
-  <si>
-    <t>address of incorporation in Ukraine, registration of legal address, tax address, office space, legal registration, choice of location, company reputation, tax liabilities</t>
-  </si>
-  <si>
-    <t>techplanet.today</t>
-  </si>
-  <si>
-    <t>https://techplanet.today/post/essential-guide-to-legal-addresses-in-ukraine</t>
-  </si>
-  <si>
-    <t>rent legal address in Ukraine</t>
-  </si>
-  <si>
-    <t>instapaper.com</t>
-  </si>
-  <si>
-    <t>https://www.instapaper.com/read/1678225545</t>
-  </si>
-  <si>
-    <t>Доставка вантажів</t>
-  </si>
-  <si>
-    <t>https://glose.com/activity/6632145a554395d67d2323cf</t>
-  </si>
-  <si>
-    <t>Доставка грузов</t>
-  </si>
-  <si>
-    <t>forum.worldwindcentral.com</t>
-  </si>
-  <si>
-    <t>https://forum.worldwindcentral.com/forum/world-wind-community/worldwind-general/173231-running-a-successful-business-in-ukraine</t>
-  </si>
-  <si>
-    <t>Морские контейнерные перевозки</t>
-  </si>
-  <si>
-    <t>myworldgo.com</t>
-  </si>
-  <si>
-    <t>https://myworldgo.com/forums/topic/137021/rent-legal-address-in-ukraine/view/post_id/1440005</t>
-  </si>
-  <si>
-    <t>Фрахт контейнера</t>
-  </si>
-  <si>
-    <t>opensource.platon.org</t>
-  </si>
-  <si>
-    <t>http://opensource.platon.org/forum/projects/viewtopic.php?p=12541489</t>
-  </si>
-  <si>
-    <t>Документы при экспорте товара</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/main_forms_of_ownership_in_ukraine</t>
-  </si>
-  <si>
-    <t>Forms of Ownership in Ukraine: Everything You Need to Know</t>
-  </si>
-  <si>
-    <t>property in Ukraine, property registration, ownership rules, forms of ownership in business, ownership of real estate, property and taxes, types of ownership</t>
-  </si>
-  <si>
-    <t>lessons.drawspace.com</t>
-  </si>
-  <si>
-    <t>https://lessons.drawspace.com/post/802486/understanding-forms-of-ownership-in-ukraine</t>
-  </si>
-  <si>
-    <t>outdoorproject.com</t>
-  </si>
-  <si>
-    <t>https://www.outdoorproject.com/users/valeriia-tarasenko</t>
-  </si>
-  <si>
-    <t>Forms of ownership in Ukraine</t>
-  </si>
-  <si>
-    <t>plurk.com</t>
-  </si>
-  <si>
-    <t>https://www.plurk.com/HarperCook/public</t>
-  </si>
-  <si>
-    <t>Авіа перевезення</t>
-  </si>
-  <si>
-    <t>forum.amzgame.com</t>
-  </si>
-  <si>
-    <t>https://forum.amzgame.com/thread/detail?id=298369</t>
-  </si>
-  <si>
-    <t>відповідальність митного брокера</t>
-  </si>
-  <si>
-    <t>forum-divorcedmoms.azurewebsites.net</t>
-  </si>
-  <si>
-    <t>https://forum-divorcedmoms.azurewebsites.net/posts/m21517-Navigating-Forms-of-Ownership-in-Ukraine-with-Trans-Hope</t>
-  </si>
-  <si>
-    <t>Интермодальные перевозки</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/opening_a_company_in_ukraine</t>
-  </si>
-  <si>
-    <t>Starting a Legal Entity in Ukraine: Step by Step Guidance and Tips</t>
-  </si>
-  <si>
-    <t>company registration, business in Ukraine, startup in Ukraine, entrepreneurship in Ukraine, establish a company, tax legislation, registration rules, documents for business</t>
-  </si>
-  <si>
-    <t>penzu.com</t>
-  </si>
-  <si>
-    <t>https://penzu.com/p/58467a4b685b045e</t>
-  </si>
-  <si>
-    <t>permacultureglobal.org</t>
-  </si>
-  <si>
-    <t>https://permacultureglobal.org/users/59182-william-murphy</t>
-  </si>
-  <si>
-    <t>Авиа перевозка грузов</t>
-  </si>
-  <si>
-    <t>workingus.com</t>
-  </si>
-  <si>
-    <t>https://www.workingus.com/forums/topic/excel-in-programming-with-professional-homework-assistance/</t>
-  </si>
-  <si>
-    <t>Услуги таможенного брокера цена</t>
-  </si>
-  <si>
-    <t>https://myworldgo.com/forums/topic/124616/i-m-considering-starting-a-company-in-ukraine/view/post_id/1339952</t>
-  </si>
-  <si>
-    <t>Cargo delivery to Ukraine</t>
-  </si>
-  <si>
-    <t>22.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/trade_agent_in_ukraine</t>
-  </si>
-  <si>
-    <t>Trade Agent in Ukraine: Effective Support for your Foreign Trade Business</t>
-  </si>
-  <si>
-    <t>trade intermediary, foreign trade agent, export consultant, import broker, foreign trade consultancy, world trade, international business, trade with Ukraine, foreign economic activity</t>
-  </si>
-  <si>
-    <t>pubhtml5.com/homepage/pkpfy/</t>
-  </si>
-  <si>
-    <t>https://pubhtml5.com/homepage/pkpfy/</t>
-  </si>
-  <si>
-    <t>metooo.com</t>
-  </si>
-  <si>
-    <t>https://www.metooo.com/u/benjaminevans</t>
-  </si>
-  <si>
-    <t>Митні брокери київа</t>
-  </si>
-  <si>
-    <t>mysportsgo.com</t>
-  </si>
-  <si>
-    <t>https://www.mysportsgo.com/forums/topic/20904/anyone-know-about-trade-agent-services-in-ukraine/view/post_id/701971</t>
-  </si>
-  <si>
-    <t>Політика конфіденційності в перевезеннях</t>
-  </si>
-  <si>
-    <t>medium.com</t>
-  </si>
-  <si>
-    <t>https://medium.com/@orlova1999vin/trade-agents-in-ukraine-your-gateway-to-global-trade-success-2c00b4be5502</t>
-  </si>
-  <si>
-    <t>Customs brokerage costs Kyiv Ukraine</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/foreign_trade_consulting</t>
-  </si>
-  <si>
-    <t>Foreign Economic Activity Consulting: Expert Guidance on Foreign Economic Activity</t>
-  </si>
-  <si>
-    <t>Foreign Economic Activity Consulting, Foreign Economic Activity Services, export-import consulting, customs consulting, international trade, export procedures, import regulations, Foreign Economic Expert, foreign economic activity</t>
-  </si>
-  <si>
-    <t>21.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/multimodal_transportation</t>
-  </si>
-  <si>
-    <t>Multimodal Transportation: Optimizing Freight Transportation in Europe and the World</t>
-  </si>
-  <si>
-    <t>multimodal logistics, combined transport, multimodal transportation, global multimodal solutions, freight optimization, multimodal transportation in Europe, multimodal freight transportation, multimodal transportation within the country, multimodal delivery, multimodal transport</t>
-  </si>
-  <si>
-    <t>gravatar.com</t>
-  </si>
-  <si>
-    <t>https://gravatar.com/kd250266</t>
-  </si>
-  <si>
-    <t>авто перевозки</t>
-  </si>
-  <si>
-    <t>https://lessons.drawspace.com/post/721832/moving-goods-from-one-point-to-another</t>
-  </si>
-  <si>
-    <t>Переваги морських контейнерних перевезень</t>
-  </si>
-  <si>
-    <t>speakoutu.org</t>
-  </si>
-  <si>
-    <t>https://speakoutu.org/our-forum/topic/multimodal-transportation-ukraine-streamlining-freight-logistics-with-trans-hope/</t>
-  </si>
-  <si>
-    <t>Авто доставка грузов из Европы</t>
-  </si>
-  <si>
-    <t>19.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/airfreight_costs</t>
-  </si>
-  <si>
-    <t>Air Freight Costs: How to Calculate and Optimize Your Expenses</t>
-  </si>
-  <si>
-    <t>air freight costs, air freight rates, air freight rates, air freight prices, air freight costs, air freight costs, air freight costs, budget for air freight, air freight savings, air freight costs</t>
-  </si>
-  <si>
-    <t>webyourself.eu</t>
-  </si>
-  <si>
-    <t>https://webyourself.eu/forums/thread/14952/International-air-cargo-rates</t>
-  </si>
-  <si>
-    <t>https://forum.amzgame.com/thread/detail?id=311337</t>
-  </si>
-  <si>
-    <t>files.fm</t>
-  </si>
-  <si>
-    <t>https://files.fm/PedroFernandes/info</t>
-  </si>
-  <si>
-    <t>экспедирование в порту</t>
-  </si>
-  <si>
-    <t>intensedebate.com</t>
-  </si>
-  <si>
-    <t>https://www.thuum.org/viewthread.php?thread=4233&amp;newthread=true</t>
-  </si>
-  <si>
-    <t>flokii.com</t>
-  </si>
-  <si>
-    <t>https://www.flokii.com/questions/view/5862/organizing-freight-transportation</t>
-  </si>
-  <si>
-    <t>Митне оформлення</t>
-  </si>
-  <si>
-    <t>thefreeworldpress.com</t>
-  </si>
-  <si>
-    <t>https://www.thefreeworldpress.com/forums/topic/17768/air-freight-to-ukraine</t>
-  </si>
-  <si>
-    <t>авто перевезення</t>
-  </si>
-  <si>
-    <t>chambers.com.au</t>
-  </si>
-  <si>
-    <t>https://www.chambers.com.au/forum/view_post.php?frm=1&amp;pstid=54596&amp;pstcl=&amp;kwd=</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/ua/blog/searching-for-suppliers-in-china</t>
-  </si>
-  <si>
-    <t>15.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/cargo_delivery_from_Europe</t>
-  </si>
-  <si>
-    <t>Cargo delivery from Europe: Efficient Logistics for Your Business</t>
-  </si>
-  <si>
-    <t>ukraine, international delivery from Europe, logistics of cargoes from Europe, import from Europe, export to Europe, cargo transportation to Europe, transportation of goods from Europe, European deliveries, transportation of cargoes through Europe</t>
-  </si>
-  <si>
-    <t>artstation.com</t>
-  </si>
-  <si>
-    <t>https://www.artstation.com/artwork/JvyZeR</t>
-  </si>
-  <si>
-    <t>producthunt.com</t>
-  </si>
-  <si>
-    <t>https://www.producthunt.com/@lucassantos</t>
-  </si>
-  <si>
-    <t>консультирование таможня вэд</t>
-  </si>
-  <si>
-    <t>pastebin.com</t>
-  </si>
-  <si>
-    <t>https://justpaste.me/iI22</t>
-  </si>
-  <si>
-    <t>Стоимость контейнерной перевозки</t>
-  </si>
-  <si>
-    <t>debwan.com</t>
-  </si>
-  <si>
-    <t>https://www.debwan.com/forums/thread/6735/Advantages-of-the-truck-shipment-from-Europe</t>
-  </si>
-  <si>
-    <t>Митні режими в Україні</t>
-  </si>
-  <si>
-    <t>nedrago.com</t>
-  </si>
-  <si>
-    <t>https://www.nedrago.com/forums/topic/cargo-delivery-from-europe-to-ukraine-seamless-logistics-solutions/</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
-  </si>
-  <si>
-    <t>13.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/port_forwarding</t>
-  </si>
-  <si>
-    <t>Port Forwarding in Ukraine - Reliable Logistics of Your Cargoes</t>
-  </si>
-  <si>
-    <t>sea freight forwarding, port services, port freight forwarding, port logistics, port cargo handling, marine terminals, port infrastructure, port cargo, sea transportation</t>
-  </si>
-  <si>
-    <t>hulkshare.com</t>
-  </si>
-  <si>
-    <t>https://www.hulkshare.com/AlexTurner</t>
-  </si>
-  <si>
-    <t>Trade agent service in Ukraine</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/customs_brokerage_services_cost</t>
-  </si>
-  <si>
-    <t>Cost of Customs Brokerage Services in Ukraine: Professional Assistance and Optimization of Foreign Economic Activity</t>
-  </si>
-  <si>
-    <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
-  </si>
-  <si>
-    <t>https://mernetwork.com/index/showthread.php?21043-Customs-Brokerage-Services-Ukraine</t>
-  </si>
-  <si>
-    <t>Митний Брокер Київ</t>
-  </si>
-  <si>
-    <t>17/03/2024</t>
-  </si>
-  <si>
-    <t>heylink.me</t>
-  </si>
-  <si>
-    <t>https://heylink.me/vpavlenko/</t>
-  </si>
-  <si>
-    <t>what forms of taxation in Ukraine</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/customs_broker</t>
-  </si>
-  <si>
-    <t>Customs broker Ukraine: Professional services in Kiev, Odessa and Lviv</t>
-  </si>
-  <si>
-    <t>customs broker Ukraine, customs brokerage services, customs clearance, customs broker Kiev, customs broker Odessa, customs broker Lviv, customs services, international trade, import and export, customs declaration, brokerage services</t>
-  </si>
-  <si>
-    <t>linktr.ee</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/CustomsbrokerUA?lt_utm_source=lt_admin_share_link</t>
-  </si>
-  <si>
-    <t>walkscore.com</t>
-  </si>
-  <si>
-    <t>https://www.walkscore.com/people/105879419523/roberthall</t>
-  </si>
-  <si>
-    <t>tax reporting service in Ukraine</t>
-  </si>
-  <si>
-    <t>12.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/fqas</t>
-  </si>
-  <si>
-    <t>Frequently Asked Questions (FAQs)</t>
-  </si>
-  <si>
-    <t>FAQ Questions and Answers, Customer Information, Explanation of Services, Typical Questions, User Guide, Frequent Requests, Detailed Answers, Help and Tips, Customer Support</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/help</t>
-  </si>
-  <si>
-    <t>Help &amp; Support: Your Guide to the World of Shipping and Customs Clearance</t>
-  </si>
-  <si>
-    <t>customer service, customer support, customer assistance, customer help, frequently asked questions, customer service contacts, customer support, feedback, shipping assistance, customer counseling, technical support</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/cookies</t>
-  </si>
-  <si>
-    <t>Cookies</t>
-  </si>
-  <si>
-    <t>adrex.com</t>
-  </si>
-  <si>
-    <t>https://www.adrex.com/en/forum/climbing/argo-delivery-41888/</t>
-  </si>
-  <si>
-    <t>05.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/terms_conditions</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>terms of use, terms of service, terms of use, terms of use policy, terms of use agreement, terms of use, terms of service, terms of service agreement, terms of use of the website, user agreement, terms of security, terms of security, terms of delivery, customs clearance agreement, terms of data processing</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/privacy_policy</t>
-  </si>
-  <si>
-    <t>Privacy Policy</t>
-  </si>
-  <si>
-    <t>Data privacy, personal data protection, personal data processing, website privacy policy, consent to data processing, data protection regulations, GDPR, data protection, information security, data protection assurance, customer privacy policy</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/about_us</t>
-  </si>
-  <si>
-    <t>About Us: Trans-Hope, Your Reliable Partner in Shipping and Customs Clearance</t>
-  </si>
-  <si>
-    <t>About us</t>
-  </si>
-  <si>
-    <t>https://webyourself.eu/forums/thread/11040/International-Shipping</t>
-  </si>
-  <si>
-    <t>доставка вантажів з Китаю</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/customs_clearance</t>
-  </si>
-  <si>
-    <t>Professional Customs Clearance in Ukraine: Fast and Reliable</t>
-  </si>
-  <si>
-    <t>customs clearance, customs clearance services Ukraine, customs broker Kiev, customs payments calculation, cargo escort, customs documents, customs services Odessa</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/container_delivery</t>
-  </si>
-  <si>
-    <t>Sea Container Transportation to Ukraine: Reliable and Economical</t>
-  </si>
-  <si>
-    <t>sea container transportations, sea transportations to Ukraine, sea logistics, container transportations, sea freight, international sea transportations, container sea transportations, sea transport, container transportations by sea, sea forwarding, sea lines, sea transportations of goods, sea delivery, sea freight transportations, container logistics, sea transportation, sea freight services.</t>
-  </si>
-  <si>
-    <t>letterboxd.com</t>
-  </si>
-  <si>
-    <t>https://letterboxd.com/crafta/film/logistics-2011/</t>
-  </si>
-  <si>
-    <t>Sea container transportation port Odessa</t>
-  </si>
-  <si>
-    <t>https://www.tadalive.com/forum/thread/45229/sea-container-transportation-to-ukraine/</t>
-  </si>
-  <si>
-    <t>Таможенный брокер</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/truck_delivery</t>
-  </si>
-  <si>
-    <t>Trucking: Reliable and Efficient Transportation of Your Cargo</t>
-  </si>
-  <si>
-    <t>Road Trucking, Road Freight, Road Freight Logistics, Road Freight Logistics, Road Freight Trucks, Road Freight Services, Road Freight Services, Road Freight Delivery, Road Freight Delivery, Road Freight Transportation, Road Freight Services, Road Freight Logistics, Road Freight, Road Freight, Road Freight Logistics Services, Road Freight Trucking, Road Freight Trucks, Road Freight Vans, Professional Road Freight Services</t>
-  </si>
-  <si>
-    <t>04.09.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/air_delivery</t>
-  </si>
-  <si>
-    <t>Air transportation: fast, reliable and efficient</t>
-  </si>
-  <si>
-    <t>Air transportation, Air cargo transportation, International air transportation, Air cargo transportation, Air cargo transportation, Air cargo logistics, Air freight, Air cargo transportation, Air logistics, Air cargo transportation, Air cargo transportation, Air transportation from China, Air transportation to Europe, Air cargo transportation, Air cargo transportation, Air cargo transportation, Air transportation of dangerous goods</t>
-  </si>
-  <si>
-    <t>hackerrank.com</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/diagonal-difference/forum/comments/1432203</t>
-  </si>
-  <si>
-    <t>Page Seo</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/sea_container_freight_rate</t>
-  </si>
-  <si>
-    <t>Cost of Container Transportation by Sea: Reliable and Competitive Rates</t>
-  </si>
-  <si>
-    <t>price of sea transportation of containers, tariffs for sea transportation, cost of transportation by sea, rates for transportation by sea container, tariffs for container transportation</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/container_freight_rate</t>
-  </si>
-  <si>
-    <t>Container Freight: Exact prices and flexible conditions for freight transportation</t>
-  </si>
-  <si>
-    <t>sea container freight rates, container freight rates, container freight tariffs, sea freight prices, freight tariffs</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/intermodal_transportation</t>
-  </si>
-  <si>
-    <t>Intermodal Transportation: Efficiency and Reliability in Global Logistics</t>
-  </si>
-  <si>
-    <t>intermodal freight transportation, multimodal transportation, combined transportation, transportation of goods by different modes of transportation</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/customs_broker_services_price</t>
-  </si>
-  <si>
-    <t>Costs for Customs Brokerage Services: Transparency and Efficiency, Kyiv Ukraine</t>
-  </si>
-  <si>
-    <t>price of customs services, cost of brokerage services, customs clearance tariffs, customs brokerage rates, customs services pricing policy, brokerage fees, customs clearance price, cost of customs brokerage services</t>
-  </si>
-  <si>
-    <t>02.09.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/en/customs_broker_kyiv</t>
-  </si>
-  <si>
-    <t>Customs Broker Kiev: Effective Customs Support for Your Business</t>
-  </si>
-  <si>
-    <t>export and import of goods, customs consulting, brokerage services for international trade, customs procedures, customs consultancy, customs consultant, brokerage services Kiev, customs fees, customs clearance of goods</t>
   </si>
   <si>
     <t>Accordion</t>
@@ -1740,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K148"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -1985,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -2020,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -2049,13 +2136,13 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -2075,22 +2162,22 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -2110,22 +2197,22 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -2145,22 +2232,22 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -2180,10 +2267,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -2215,16 +2302,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
         <v>54</v>
@@ -2253,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -2288,7 +2375,7 @@
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -2323,7 +2410,7 @@
         <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -2358,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -2393,7 +2480,7 @@
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -2428,7 +2515,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -2463,7 +2550,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -2498,7 +2585,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -2510,7 +2597,7 @@
         <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -2533,19 +2620,19 @@
         <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
         <v>83</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>84</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
@@ -2565,22 +2652,22 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
         <v>86</v>
       </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>87</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>88</v>
-      </c>
-      <c r="J24" t="s">
-        <v>89</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -2600,13 +2687,13 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
         <v>90</v>
@@ -2615,7 +2702,7 @@
         <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
@@ -2635,22 +2722,22 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" t="s">
-        <v>95</v>
-      </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
@@ -2670,22 +2757,22 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" t="s">
         <v>97</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" t="s">
-        <v>100</v>
       </c>
       <c r="K27" t="s">
         <v>22</v>
@@ -2705,22 +2792,22 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s">
         <v>22</v>
@@ -2740,22 +2827,22 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
@@ -2766,13 +2853,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2798,10 +2885,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2827,16 +2914,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
         <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2862,16 +2949,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
         <v>115</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>118</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2897,16 +2984,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2932,16 +3019,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2967,16 +3054,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -3002,16 +3089,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
         <v>128</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" t="s">
-        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -3037,34 +3124,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
+      <c r="I38" t="s">
         <v>134</v>
       </c>
-      <c r="D38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
-      </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -3087,19 +3174,19 @@
         <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -3107,16 +3194,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -3128,13 +3215,13 @@
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -3154,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
@@ -3163,13 +3250,13 @@
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
         <v>22</v>
@@ -3192,19 +3279,19 @@
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -3212,19 +3299,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
         <v>33</v>
@@ -3233,13 +3320,13 @@
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J43" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
@@ -3262,19 +3349,19 @@
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
@@ -3294,22 +3381,22 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" t="s">
         <v>161</v>
-      </c>
-      <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" t="s">
-        <v>163</v>
-      </c>
-      <c r="J45" t="s">
-        <v>164</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
@@ -3317,34 +3404,34 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
         <v>165</v>
       </c>
-      <c r="B46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" t="s">
-        <v>168</v>
-      </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F46" t="s">
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
@@ -3367,19 +3454,19 @@
         <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
@@ -3387,19 +3474,19 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3408,13 +3495,13 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
@@ -3434,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F49" t="s">
         <v>33</v>
@@ -3443,13 +3530,13 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
         <v>22</v>
@@ -3469,22 +3556,22 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
@@ -3507,19 +3594,19 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J51" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -3539,22 +3626,22 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I52" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J52" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K52" t="s">
         <v>22</v>
@@ -3574,10 +3661,10 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>23</v>
@@ -3586,10 +3673,10 @@
         <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J53" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
@@ -3597,16 +3684,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -3618,13 +3705,13 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K54" t="s">
         <v>22</v>
@@ -3644,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
         <v>33</v>
@@ -3653,13 +3740,13 @@
         <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I55" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J55" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
         <v>22</v>
@@ -3679,22 +3766,22 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I56" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J56" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K56" t="s">
         <v>22</v>
@@ -3714,22 +3801,22 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
         <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I57" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
         <v>22</v>
@@ -3752,19 +3839,19 @@
         <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I58" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J58" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K58" t="s">
         <v>22</v>
@@ -3784,22 +3871,22 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I59" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J59" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
@@ -3807,34 +3894,34 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I60" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="K60" t="s">
         <v>22</v>
@@ -3863,13 +3950,13 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I61" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K61" t="s">
         <v>22</v>
@@ -3889,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -3898,13 +3985,13 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I62" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J62" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
         <v>22</v>
@@ -3924,22 +4011,22 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I63" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J63" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="K63" t="s">
         <v>22</v>
@@ -3962,19 +4049,19 @@
         <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J64" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s">
         <v>22</v>
@@ -3982,16 +4069,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -4000,16 +4087,16 @@
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I65" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="K65" t="s">
         <v>22</v>
@@ -4029,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
         <v>33</v>
@@ -4038,13 +4125,13 @@
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I66" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="J66" t="s">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
         <v>22</v>
@@ -4067,19 +4154,19 @@
         <v>56</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I67" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J67" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K67" t="s">
         <v>22</v>
@@ -4099,22 +4186,22 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I68" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="J68" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="K68" t="s">
         <v>22</v>
@@ -4122,16 +4209,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4143,13 +4230,13 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I69" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="J69" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
         <v>22</v>
@@ -4169,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
         <v>33</v>
@@ -4178,13 +4265,13 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I70" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="J70" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
         <v>22</v>
@@ -4204,22 +4291,22 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="I71" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J71" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
@@ -4239,22 +4326,22 @@
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="I72" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="J72" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
@@ -4262,16 +4349,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
         <v>247</v>
       </c>
-      <c r="B73" t="s">
-        <v>262</v>
-      </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -4297,19 +4384,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -4318,13 +4405,13 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I74" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J74" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="K74" t="s">
         <v>22</v>
@@ -4344,22 +4431,22 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I75" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J75" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="K75" t="s">
         <v>22</v>
@@ -4382,19 +4469,19 @@
         <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I76" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J76" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K76" t="s">
         <v>22</v>
@@ -4402,34 +4489,34 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I77" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="J77" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="K77" t="s">
         <v>22</v>
@@ -4449,22 +4536,22 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I78" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="J78" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
@@ -4484,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
         <v>33</v>
@@ -4493,13 +4580,13 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="I79" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J79" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
@@ -4519,22 +4606,22 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I80" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J80" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
@@ -4554,22 +4641,22 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I81" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J81" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
@@ -4589,22 +4676,22 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="I82" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="J82" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
@@ -4627,19 +4714,19 @@
         <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
         <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="I83" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="J83" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
@@ -4647,16 +4734,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -4668,13 +4755,13 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="I84" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J84" t="s">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="K84" t="s">
         <v>22</v>
@@ -4694,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s">
         <v>33</v>
@@ -4703,13 +4790,13 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I85" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="J85" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
@@ -4729,22 +4816,22 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F86" t="s">
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="I86" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="J86" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="K86" t="s">
         <v>22</v>
@@ -4764,22 +4851,22 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="I87" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="J87" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
@@ -4802,19 +4889,19 @@
         <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I88" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="J88" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
@@ -4822,19 +4909,19 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F89" t="s">
         <v>33</v>
@@ -4843,13 +4930,13 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I89" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="J89" t="s">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="K89" t="s">
         <v>22</v>
@@ -4857,34 +4944,34 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C90" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="J90" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="K90" t="s">
         <v>22</v>
@@ -4904,7 +4991,7 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
         <v>33</v>
@@ -4913,13 +5000,13 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="I91" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="J91" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="K91" t="s">
         <v>22</v>
@@ -4927,16 +5014,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D92" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="E92" t="s">
         <v>16</v>
@@ -4945,16 +5032,16 @@
         <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="I92" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="J92" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="K92" t="s">
         <v>22</v>
@@ -4974,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F93" t="s">
         <v>33</v>
@@ -4983,13 +5070,13 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="I93" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="J93" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="K93" t="s">
         <v>22</v>
@@ -4997,16 +5084,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C94" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D94" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -5032,16 +5119,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D95" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -5067,34 +5154,34 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="I96" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="J96" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K96" t="s">
         <v>22</v>
@@ -5102,16 +5189,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -5137,16 +5224,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -5172,34 +5259,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D99" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I99" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="J99" t="s">
-        <v>362</v>
+        <v>22</v>
       </c>
       <c r="K99" t="s">
         <v>22</v>
@@ -5207,16 +5294,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C100" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="D100" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -5242,16 +5329,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C101" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D101" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
@@ -5263,13 +5350,13 @@
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="I101" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="J101" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="K101" t="s">
         <v>22</v>
@@ -5289,22 +5376,22 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="J102" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="K102" t="s">
         <v>22</v>
@@ -5312,16 +5399,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -5347,16 +5434,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B104" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C104" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -5368,13 +5455,13 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="I104" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="J104" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="K104" t="s">
         <v>22</v>
@@ -5417,7 +5504,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -5452,217 +5539,217 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C107" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D107" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="I107" t="s">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="J107" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="K107" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>388</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="J108" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K108" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>392</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="J110" t="s">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="K110" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="J111" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>379</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>382</v>
       </c>
       <c r="J112" t="s">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="K112" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -5674,60 +5761,60 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="I113" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="J113" t="s">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="K113" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>403</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>386</v>
       </c>
       <c r="I114" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="J114" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5744,30 +5831,30 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="I115" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="J115" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="K115" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -5779,240 +5866,240 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="I116" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="J116" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K116" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>405</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="J117" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="K117" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>399</v>
       </c>
       <c r="I118" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="J118" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="K118" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>412</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="I119" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="J119" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="K119" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>416</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="I120" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="J120" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K120" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I121" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="J121" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="K121" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>410</v>
       </c>
       <c r="I122" t="s">
-        <v>12</v>
+        <v>411</v>
       </c>
       <c r="J122" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K122" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -6024,179 +6111,179 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="I123" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="J123" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K123" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="I124" t="s">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="J124" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="K124" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B125" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C125" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D125" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="I125" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="J125" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="K125" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>375</v>
+      </c>
+      <c r="F126" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H126" t="s">
+        <v>424</v>
+      </c>
+      <c r="I126" t="s">
         <v>425</v>
       </c>
-      <c r="B126" t="s">
-        <v>432</v>
-      </c>
-      <c r="C126" t="s">
-        <v>433</v>
-      </c>
-      <c r="D126" t="s">
-        <v>434</v>
-      </c>
-      <c r="E126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" t="s">
-        <v>12</v>
-      </c>
       <c r="J126" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K126" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>435</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>437</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="I127" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="J127" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="K127" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>435</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -6222,16 +6309,16 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -6257,16 +6344,16 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B130" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C130" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D130" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="E130" t="s">
         <v>12</v>
@@ -6292,16 +6379,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>435</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
         <v>12</v>
@@ -6327,7 +6414,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -6357,6 +6444,566 @@
         <v>12</v>
       </c>
       <c r="K132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" t="s">
+        <v>434</v>
+      </c>
+      <c r="C133" t="s">
+        <v>435</v>
+      </c>
+      <c r="D133" t="s">
+        <v>436</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>437</v>
+      </c>
+      <c r="B134" t="s">
+        <v>438</v>
+      </c>
+      <c r="C134" t="s">
+        <v>439</v>
+      </c>
+      <c r="D134" t="s">
+        <v>440</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" t="s">
+        <v>12</v>
+      </c>
+      <c r="K134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>441</v>
+      </c>
+      <c r="B135" t="s">
+        <v>442</v>
+      </c>
+      <c r="C135" t="s">
+        <v>443</v>
+      </c>
+      <c r="D135" t="s">
+        <v>444</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" t="s">
+        <v>12</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>445</v>
+      </c>
+      <c r="B136" t="s">
+        <v>446</v>
+      </c>
+      <c r="C136" t="s">
+        <v>447</v>
+      </c>
+      <c r="D136" t="s">
+        <v>448</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" t="s">
+        <v>12</v>
+      </c>
+      <c r="K136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>449</v>
+      </c>
+      <c r="B137" t="s">
+        <v>450</v>
+      </c>
+      <c r="C137" t="s">
+        <v>451</v>
+      </c>
+      <c r="D137" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" t="s">
+        <v>12</v>
+      </c>
+      <c r="K137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138" t="s">
+        <v>12</v>
+      </c>
+      <c r="K138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>453</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>12</v>
+      </c>
+      <c r="J139" t="s">
+        <v>12</v>
+      </c>
+      <c r="K139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>454</v>
+      </c>
+      <c r="B140" t="s">
+        <v>455</v>
+      </c>
+      <c r="C140" t="s">
+        <v>456</v>
+      </c>
+      <c r="D140" t="s">
+        <v>457</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140" t="s">
+        <v>12</v>
+      </c>
+      <c r="K140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>454</v>
+      </c>
+      <c r="B141" t="s">
+        <v>458</v>
+      </c>
+      <c r="C141" t="s">
+        <v>459</v>
+      </c>
+      <c r="D141" t="s">
+        <v>460</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" t="s">
+        <v>12</v>
+      </c>
+      <c r="K141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>454</v>
+      </c>
+      <c r="B142" t="s">
+        <v>461</v>
+      </c>
+      <c r="C142" t="s">
+        <v>462</v>
+      </c>
+      <c r="D142" t="s">
+        <v>463</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" t="s">
+        <v>12</v>
+      </c>
+      <c r="K142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>464</v>
+      </c>
+      <c r="B143" t="s">
+        <v>465</v>
+      </c>
+      <c r="C143" t="s">
+        <v>466</v>
+      </c>
+      <c r="D143" t="s">
+        <v>467</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>464</v>
+      </c>
+      <c r="B144" t="s">
+        <v>468</v>
+      </c>
+      <c r="C144" t="s">
+        <v>469</v>
+      </c>
+      <c r="D144" t="s">
+        <v>470</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" t="s">
+        <v>12</v>
+      </c>
+      <c r="K144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>464</v>
+      </c>
+      <c r="B145" t="s">
+        <v>471</v>
+      </c>
+      <c r="C145" t="s">
+        <v>472</v>
+      </c>
+      <c r="D145" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" t="s">
+        <v>12</v>
+      </c>
+      <c r="K145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>464</v>
+      </c>
+      <c r="B146" t="s">
+        <v>474</v>
+      </c>
+      <c r="C146" t="s">
+        <v>475</v>
+      </c>
+      <c r="D146" t="s">
+        <v>476</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" t="s">
+        <v>12</v>
+      </c>
+      <c r="K146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>464</v>
+      </c>
+      <c r="B147" t="s">
+        <v>477</v>
+      </c>
+      <c r="C147" t="s">
+        <v>478</v>
+      </c>
+      <c r="D147" t="s">
+        <v>479</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" t="s">
+        <v>12</v>
+      </c>
+      <c r="K147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" t="s">
+        <v>12</v>
+      </c>
+      <c r="K148" t="s">
         <v>12</v>
       </c>
     </row>
